--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.539705963741085</v>
+        <v>2.539705963740971</v>
       </c>
       <c r="C2">
-        <v>0.6280070977422554</v>
+        <v>0.628007097742227</v>
       </c>
       <c r="D2">
-        <v>0.1511604850860806</v>
+        <v>0.1511604850859811</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.521184579362625</v>
+        <v>6.521184579362455</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2694015463047421</v>
+        <v>0.2694015463047279</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.002724196327442</v>
+        <v>1.002724196327456</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.170682797441884</v>
+        <v>2.170682797441941</v>
       </c>
       <c r="C3">
-        <v>0.5359980785413541</v>
+        <v>0.5359980785415814</v>
       </c>
       <c r="D3">
-        <v>0.1325895368710661</v>
+        <v>0.1325895368714782</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.701996941997294</v>
+        <v>5.701996941997351</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2342891429993941</v>
+        <v>0.2342891429993585</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8573396363111812</v>
+        <v>0.8573396363111456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950284514503664</v>
+        <v>1.95028451450375</v>
       </c>
       <c r="C4">
-        <v>0.4811062064032399</v>
+        <v>0.4811062064032967</v>
       </c>
       <c r="D4">
-        <v>0.1215101921904278</v>
+        <v>0.1215101921901294</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213010288471338</v>
+        <v>5.213010288471366</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2133923821061998</v>
+        <v>0.2133923821062496</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86178162286248</v>
+        <v>1.861781622862651</v>
       </c>
       <c r="C5">
-        <v>0.4590707564927925</v>
+        <v>0.4590707564927641</v>
       </c>
       <c r="D5">
-        <v>0.1170624278555437</v>
+        <v>0.1170624278555294</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.016723705214957</v>
+        <v>5.016723705214929</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2050180219606332</v>
+        <v>0.2050180219606546</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7359669808948723</v>
+        <v>0.7359669808948794</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.84715841064795</v>
+        <v>1.847158410647921</v>
       </c>
       <c r="C6">
-        <v>0.4554300608890856</v>
+        <v>0.4554300608895971</v>
       </c>
       <c r="D6">
-        <v>0.1163275542169302</v>
+        <v>0.1163275542166815</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.984295805352133</v>
+        <v>4.984295805352161</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2036353129905777</v>
+        <v>0.2036353129905564</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7302291113193178</v>
+        <v>0.7302291113193107</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94908592516623</v>
+        <v>1.949085925166287</v>
       </c>
       <c r="C7">
-        <v>0.4808077639417263</v>
+        <v>0.4808077639423232</v>
       </c>
       <c r="D7">
-        <v>0.1214499536382192</v>
+        <v>0.1214499536382903</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210351703814382</v>
+        <v>5.210351703814354</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2132789019544035</v>
+        <v>0.213278901954439</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7702386313974685</v>
+        <v>0.7702386313974756</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>2.411026846336995</v>
       </c>
       <c r="C8">
-        <v>0.5959051748149591</v>
+        <v>0.595905174815158</v>
       </c>
       <c r="D8">
-        <v>0.1446810583920524</v>
+        <v>0.1446810583917966</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.235477070793763</v>
+        <v>6.235477070793877</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2571410519977206</v>
+        <v>0.2571410519976851</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9519823752932624</v>
+        <v>0.9519823752932837</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.378849766612689</v>
+        <v>3.378849766612632</v>
       </c>
       <c r="C9">
-        <v>0.8380193764912178</v>
+        <v>0.8380193764913031</v>
       </c>
       <c r="D9">
-        <v>0.1935468035649421</v>
+        <v>0.19354680356453</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.385234595955666</v>
+        <v>8.385234595955723</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3497479565217532</v>
+        <v>0.3497479565218171</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.334745297905101</v>
+        <v>1.334745297905087</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.149404090135079</v>
+        <v>4.149404090134908</v>
       </c>
       <c r="C10">
-        <v>1.032182856903006</v>
+        <v>1.032182856902978</v>
       </c>
       <c r="D10">
-        <v>0.232714724320644</v>
+        <v>0.2327147243209993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.09725392799339</v>
+        <v>10.09725392799362</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.424055805406546</v>
+        <v>0.4240558054065602</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.641228837513836</v>
+        <v>1.641228837513822</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.519126766296495</v>
+        <v>4.519126766296665</v>
       </c>
       <c r="C11">
-        <v>1.125878155083001</v>
+        <v>1.125878155083399</v>
       </c>
       <c r="D11">
-        <v>0.2516008068169526</v>
+        <v>0.2516008068171089</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.91847449657837</v>
+        <v>10.91847449657854</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.45986961792768</v>
+        <v>0.4598696179276374</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.788801858432137</v>
+        <v>1.788801858432166</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.662561630914979</v>
+        <v>4.66256163091532</v>
       </c>
       <c r="C12">
-        <v>1.162328213690643</v>
+        <v>1.162328213691552</v>
       </c>
       <c r="D12">
-        <v>0.258944420825955</v>
+        <v>0.2589444208253866</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.23699455500616</v>
+        <v>11.23699455500588</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4737899614428116</v>
+        <v>0.4737899614427974</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.846142038753243</v>
+        <v>1.846142038753257</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.631505529028288</v>
+        <v>4.631505529028516</v>
       </c>
       <c r="C13">
-        <v>1.154431252612994</v>
+        <v>1.154431252613563</v>
       </c>
       <c r="D13">
-        <v>0.2573536046574105</v>
+        <v>0.2573536046566005</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.16803362851834</v>
+        <v>11.16803362851812</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4707747470146089</v>
+        <v>0.4707747470145947</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.833722713733664</v>
+        <v>1.833722713733707</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.530854132100785</v>
+        <v>4.530854132100671</v>
       </c>
       <c r="C14">
-        <v>1.128856187878313</v>
+        <v>1.128856187878284</v>
       </c>
       <c r="D14">
-        <v>0.2522008746661726</v>
+        <v>0.2522008746661015</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.94451875653965</v>
+        <v>10.94451875653976</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4610072150407163</v>
+        <v>0.4610072150407305</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.793488186071372</v>
+        <v>1.793488186071386</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.46967126907299</v>
+        <v>4.469671269072592</v>
       </c>
       <c r="C15">
-        <v>1.113323671120327</v>
+        <v>1.113323671120412</v>
       </c>
       <c r="D15">
-        <v>0.2490709487170619</v>
+        <v>0.2490709487168346</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.80863993162546</v>
+        <v>10.80863993162541</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4550733266638005</v>
+        <v>0.4550733266637863</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.769042782352059</v>
+        <v>1.769042782352074</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.125681880441448</v>
+        <v>4.125681880441391</v>
       </c>
       <c r="C16">
-        <v>1.026183553828218</v>
+        <v>1.026183553827764</v>
       </c>
       <c r="D16">
-        <v>0.2315050504410436</v>
+        <v>0.2315050504406457</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.04455493672711</v>
+        <v>10.04455493672708</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.42176132368742</v>
+        <v>0.4217613236874485</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.631771562292741</v>
+        <v>1.631771562292755</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.920002241934412</v>
+        <v>3.920002241934355</v>
       </c>
       <c r="C17">
-        <v>0.9742279119422221</v>
+        <v>0.9742279119435295</v>
       </c>
       <c r="D17">
-        <v>0.2210272237749393</v>
+        <v>0.221027223774783</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.587608085787366</v>
+        <v>9.587608085787281</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4018851090985152</v>
+        <v>0.401885109098437</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.803459694640139</v>
+        <v>3.803459694640253</v>
       </c>
       <c r="C18">
-        <v>0.9448356430709737</v>
+        <v>0.9448356430710021</v>
       </c>
       <c r="D18">
-        <v>0.2150984975493486</v>
+        <v>0.2150984975494339</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.32867416536817</v>
+        <v>9.328674165368056</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3906371655619978</v>
+        <v>0.3906371655619907</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.503448715263403</v>
+        <v>1.50344871526346</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764284463529805</v>
+        <v>3.764284463529975</v>
       </c>
       <c r="C19">
-        <v>0.9349629964750363</v>
+        <v>0.9349629964746384</v>
       </c>
       <c r="D19">
-        <v>0.2131069058753923</v>
+        <v>0.2131069058754207</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.24163267623436</v>
+        <v>9.241632676234303</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3868585972524059</v>
+        <v>0.3868585972523988</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.487864915630468</v>
+        <v>1.487864915630482</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.941710773031218</v>
+        <v>3.941710773031275</v>
       </c>
       <c r="C20">
-        <v>0.9797065499658402</v>
+        <v>0.9797065499667212</v>
       </c>
       <c r="D20">
-        <v>0.2221322297772019</v>
+        <v>0.2221322297773725</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.635838819982354</v>
+        <v>9.635838819982439</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4039814357662408</v>
+        <v>0.4039814357662479</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.558474996112437</v>
+        <v>1.558474996112423</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.560318722857005</v>
+        <v>4.560318722856721</v>
       </c>
       <c r="C21">
-        <v>1.136340075946919</v>
+        <v>1.136340075946549</v>
       </c>
       <c r="D21">
-        <v>0.2537088006659047</v>
+        <v>0.2537088006654784</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4638658157763302</v>
+        <v>0.4638658157762947</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.985033432039927</v>
+        <v>4.985033432040098</v>
       </c>
       <c r="C22">
-        <v>1.244490270528786</v>
+        <v>1.244490270528814</v>
       </c>
       <c r="D22">
-        <v>0.2754889021556153</v>
+        <v>0.2754889021558711</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.95289991609656</v>
+        <v>11.95289991609638</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5051377425923107</v>
+        <v>0.5051377425923604</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.975235060887016</v>
+        <v>1.97523506088703</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.75622281498363</v>
+        <v>4.756222814983516</v>
       </c>
       <c r="C23">
-        <v>1.18616102204308</v>
+        <v>1.186161022044303</v>
       </c>
       <c r="D23">
-        <v>0.2637447952857457</v>
+        <v>0.2637447952861152</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.44495708106831</v>
+        <v>11.44495708106842</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.883611134421528</v>
+        <v>1.883611134421585</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.931891082503057</v>
+        <v>3.931891082503171</v>
       </c>
       <c r="C24">
         <v>0.9772281839814241</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.614022063950529</v>
+        <v>9.614022063950472</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4030331334550823</v>
+        <v>0.4030331334551178</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.554565035291532</v>
+        <v>1.554565035291546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108388925136865</v>
+        <v>3.108388925137149</v>
       </c>
       <c r="C25">
-        <v>0.7701873587922137</v>
+        <v>0.7701873587931516</v>
       </c>
       <c r="D25">
-        <v>0.1798574922660094</v>
+        <v>0.1798574922664926</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.784327396721665</v>
+        <v>7.784327396721636</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3237815951241032</v>
+        <v>0.3237815951240819</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.539705963740971</v>
+        <v>2.539705963741085</v>
       </c>
       <c r="C2">
-        <v>0.628007097742227</v>
+        <v>0.6280070977422554</v>
       </c>
       <c r="D2">
-        <v>0.1511604850859811</v>
+        <v>0.1511604850860806</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.521184579362455</v>
+        <v>6.521184579362625</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2694015463047279</v>
+        <v>0.2694015463047421</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.002724196327456</v>
+        <v>1.002724196327442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.170682797441941</v>
+        <v>2.170682797441884</v>
       </c>
       <c r="C3">
-        <v>0.5359980785415814</v>
+        <v>0.5359980785413541</v>
       </c>
       <c r="D3">
-        <v>0.1325895368714782</v>
+        <v>0.1325895368710661</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.701996941997351</v>
+        <v>5.701996941997294</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2342891429993585</v>
+        <v>0.2342891429993941</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8573396363111456</v>
+        <v>0.8573396363111812</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.95028451450375</v>
+        <v>1.950284514503664</v>
       </c>
       <c r="C4">
-        <v>0.4811062064032967</v>
+        <v>0.4811062064032399</v>
       </c>
       <c r="D4">
-        <v>0.1215101921901294</v>
+        <v>0.1215101921904278</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213010288471366</v>
+        <v>5.213010288471338</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2133923821062496</v>
+        <v>0.2133923821061998</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.861781622862651</v>
+        <v>1.86178162286248</v>
       </c>
       <c r="C5">
-        <v>0.4590707564927641</v>
+        <v>0.4590707564927925</v>
       </c>
       <c r="D5">
-        <v>0.1170624278555294</v>
+        <v>0.1170624278555437</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.016723705214929</v>
+        <v>5.016723705214957</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2050180219606546</v>
+        <v>0.2050180219606332</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7359669808948794</v>
+        <v>0.7359669808948723</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.847158410647921</v>
+        <v>1.84715841064795</v>
       </c>
       <c r="C6">
-        <v>0.4554300608895971</v>
+        <v>0.4554300608890856</v>
       </c>
       <c r="D6">
-        <v>0.1163275542166815</v>
+        <v>0.1163275542169302</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.984295805352161</v>
+        <v>4.984295805352133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2036353129905564</v>
+        <v>0.2036353129905777</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7302291113193107</v>
+        <v>0.7302291113193178</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.949085925166287</v>
+        <v>1.94908592516623</v>
       </c>
       <c r="C7">
-        <v>0.4808077639423232</v>
+        <v>0.4808077639417263</v>
       </c>
       <c r="D7">
-        <v>0.1214499536382903</v>
+        <v>0.1214499536382192</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210351703814354</v>
+        <v>5.210351703814382</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.213278901954439</v>
+        <v>0.2132789019544035</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7702386313974756</v>
+        <v>0.7702386313974685</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>2.411026846336995</v>
       </c>
       <c r="C8">
-        <v>0.595905174815158</v>
+        <v>0.5959051748149591</v>
       </c>
       <c r="D8">
-        <v>0.1446810583917966</v>
+        <v>0.1446810583920524</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.235477070793877</v>
+        <v>6.235477070793763</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2571410519976851</v>
+        <v>0.2571410519977206</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9519823752932837</v>
+        <v>0.9519823752932624</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.378849766612632</v>
+        <v>3.378849766612689</v>
       </c>
       <c r="C9">
-        <v>0.8380193764913031</v>
+        <v>0.8380193764912178</v>
       </c>
       <c r="D9">
-        <v>0.19354680356453</v>
+        <v>0.1935468035649421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.385234595955723</v>
+        <v>8.385234595955666</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3497479565218171</v>
+        <v>0.3497479565217532</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.334745297905087</v>
+        <v>1.334745297905101</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.149404090134908</v>
+        <v>4.149404090135079</v>
       </c>
       <c r="C10">
-        <v>1.032182856902978</v>
+        <v>1.032182856903006</v>
       </c>
       <c r="D10">
-        <v>0.2327147243209993</v>
+        <v>0.232714724320644</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.09725392799362</v>
+        <v>10.09725392799339</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4240558054065602</v>
+        <v>0.424055805406546</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.641228837513822</v>
+        <v>1.641228837513836</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.519126766296665</v>
+        <v>4.519126766296495</v>
       </c>
       <c r="C11">
-        <v>1.125878155083399</v>
+        <v>1.125878155083001</v>
       </c>
       <c r="D11">
-        <v>0.2516008068171089</v>
+        <v>0.2516008068169526</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.91847449657854</v>
+        <v>10.91847449657837</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4598696179276374</v>
+        <v>0.45986961792768</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.788801858432166</v>
+        <v>1.788801858432137</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.66256163091532</v>
+        <v>4.662561630914979</v>
       </c>
       <c r="C12">
-        <v>1.162328213691552</v>
+        <v>1.162328213690643</v>
       </c>
       <c r="D12">
-        <v>0.2589444208253866</v>
+        <v>0.258944420825955</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.23699455500588</v>
+        <v>11.23699455500616</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4737899614427974</v>
+        <v>0.4737899614428116</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.846142038753257</v>
+        <v>1.846142038753243</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.631505529028516</v>
+        <v>4.631505529028288</v>
       </c>
       <c r="C13">
-        <v>1.154431252613563</v>
+        <v>1.154431252612994</v>
       </c>
       <c r="D13">
-        <v>0.2573536046566005</v>
+        <v>0.2573536046574105</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.16803362851812</v>
+        <v>11.16803362851834</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4707747470145947</v>
+        <v>0.4707747470146089</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.833722713733707</v>
+        <v>1.833722713733664</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.530854132100671</v>
+        <v>4.530854132100785</v>
       </c>
       <c r="C14">
-        <v>1.128856187878284</v>
+        <v>1.128856187878313</v>
       </c>
       <c r="D14">
-        <v>0.2522008746661015</v>
+        <v>0.2522008746661726</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.94451875653976</v>
+        <v>10.94451875653965</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4610072150407305</v>
+        <v>0.4610072150407163</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.793488186071386</v>
+        <v>1.793488186071372</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.469671269072592</v>
+        <v>4.46967126907299</v>
       </c>
       <c r="C15">
-        <v>1.113323671120412</v>
+        <v>1.113323671120327</v>
       </c>
       <c r="D15">
-        <v>0.2490709487168346</v>
+        <v>0.2490709487170619</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.80863993162541</v>
+        <v>10.80863993162546</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4550733266637863</v>
+        <v>0.4550733266638005</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.769042782352074</v>
+        <v>1.769042782352059</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.125681880441391</v>
+        <v>4.125681880441448</v>
       </c>
       <c r="C16">
-        <v>1.026183553827764</v>
+        <v>1.026183553828218</v>
       </c>
       <c r="D16">
-        <v>0.2315050504406457</v>
+        <v>0.2315050504410436</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.04455493672708</v>
+        <v>10.04455493672711</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4217613236874485</v>
+        <v>0.42176132368742</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.631771562292755</v>
+        <v>1.631771562292741</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.920002241934355</v>
+        <v>3.920002241934412</v>
       </c>
       <c r="C17">
-        <v>0.9742279119435295</v>
+        <v>0.9742279119422221</v>
       </c>
       <c r="D17">
-        <v>0.221027223774783</v>
+        <v>0.2210272237749393</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.587608085787281</v>
+        <v>9.587608085787366</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.401885109098437</v>
+        <v>0.4018851090985152</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.803459694640253</v>
+        <v>3.803459694640139</v>
       </c>
       <c r="C18">
-        <v>0.9448356430710021</v>
+        <v>0.9448356430709737</v>
       </c>
       <c r="D18">
-        <v>0.2150984975494339</v>
+        <v>0.2150984975493486</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.328674165368056</v>
+        <v>9.32867416536817</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3906371655619907</v>
+        <v>0.3906371655619978</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.50344871526346</v>
+        <v>1.503448715263403</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764284463529975</v>
+        <v>3.764284463529805</v>
       </c>
       <c r="C19">
-        <v>0.9349629964746384</v>
+        <v>0.9349629964750363</v>
       </c>
       <c r="D19">
-        <v>0.2131069058754207</v>
+        <v>0.2131069058753923</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.241632676234303</v>
+        <v>9.24163267623436</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3868585972523988</v>
+        <v>0.3868585972524059</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.487864915630482</v>
+        <v>1.487864915630468</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.941710773031275</v>
+        <v>3.941710773031218</v>
       </c>
       <c r="C20">
-        <v>0.9797065499667212</v>
+        <v>0.9797065499658402</v>
       </c>
       <c r="D20">
-        <v>0.2221322297773725</v>
+        <v>0.2221322297772019</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.635838819982439</v>
+        <v>9.635838819982354</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4039814357662479</v>
+        <v>0.4039814357662408</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.558474996112423</v>
+        <v>1.558474996112437</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.560318722856721</v>
+        <v>4.560318722857005</v>
       </c>
       <c r="C21">
-        <v>1.136340075946549</v>
+        <v>1.136340075946919</v>
       </c>
       <c r="D21">
-        <v>0.2537088006654784</v>
+        <v>0.2537088006659047</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4638658157762947</v>
+        <v>0.4638658157763302</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.985033432040098</v>
+        <v>4.985033432039927</v>
       </c>
       <c r="C22">
-        <v>1.244490270528814</v>
+        <v>1.244490270528786</v>
       </c>
       <c r="D22">
-        <v>0.2754889021558711</v>
+        <v>0.2754889021556153</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.95289991609638</v>
+        <v>11.95289991609656</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5051377425923604</v>
+        <v>0.5051377425923107</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.97523506088703</v>
+        <v>1.975235060887016</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.756222814983516</v>
+        <v>4.75622281498363</v>
       </c>
       <c r="C23">
-        <v>1.186161022044303</v>
+        <v>1.18616102204308</v>
       </c>
       <c r="D23">
-        <v>0.2637447952861152</v>
+        <v>0.2637447952857457</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.44495708106842</v>
+        <v>11.44495708106831</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.883611134421585</v>
+        <v>1.883611134421528</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.931891082503171</v>
+        <v>3.931891082503057</v>
       </c>
       <c r="C24">
         <v>0.9772281839814241</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.614022063950472</v>
+        <v>9.614022063950529</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4030331334551178</v>
+        <v>0.4030331334550823</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.554565035291546</v>
+        <v>1.554565035291532</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108388925137149</v>
+        <v>3.108388925136865</v>
       </c>
       <c r="C25">
-        <v>0.7701873587931516</v>
+        <v>0.7701873587922137</v>
       </c>
       <c r="D25">
-        <v>0.1798574922664926</v>
+        <v>0.1798574922660094</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.784327396721636</v>
+        <v>7.784327396721665</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3237815951240819</v>
+        <v>0.3237815951241032</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.539705963741085</v>
+        <v>2.511186204970784</v>
       </c>
       <c r="C2">
-        <v>0.6280070977422554</v>
+        <v>0.6137559749721504</v>
       </c>
       <c r="D2">
-        <v>0.1511604850860806</v>
+        <v>0.1546211446285639</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.521184579362625</v>
+        <v>6.530045725769924</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007737898012809818</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2694015463047421</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2677082723662352</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.002724196327442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.9968519763563464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.170682797441884</v>
+        <v>2.147129452725153</v>
       </c>
       <c r="C3">
-        <v>0.5359980785413541</v>
+        <v>0.5233922263863349</v>
       </c>
       <c r="D3">
-        <v>0.1325895368710661</v>
+        <v>0.1361673552999036</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.701996941997294</v>
+        <v>5.717866453732398</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007854630046687328</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2342891429993941</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2326578162162676</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8573396363111812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8525813545124592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950284514503664</v>
+        <v>1.929755370828502</v>
       </c>
       <c r="C4">
-        <v>0.4811062064032399</v>
+        <v>0.4695040718434029</v>
       </c>
       <c r="D4">
-        <v>0.1215101921904278</v>
+        <v>0.1251542343099743</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213010288471338</v>
+        <v>5.233042644124311</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007927507295557135</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2133923821061998</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.21179143977254</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.770709320407903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7666137060250477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86178162286248</v>
+        <v>1.842482766360888</v>
       </c>
       <c r="C5">
-        <v>0.4590707564927925</v>
+        <v>0.4478773958928457</v>
       </c>
       <c r="D5">
-        <v>0.1170624278555437</v>
+        <v>0.120732249635445</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.016723705214957</v>
+        <v>5.038425618603554</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007957549653702874</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2050180219606332</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2034278136989016</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7359669808948723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7321374966688268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.84715841064795</v>
+        <v>1.828063826805845</v>
       </c>
       <c r="C6">
-        <v>0.4554300608890856</v>
+        <v>0.4443045981067826</v>
       </c>
       <c r="D6">
-        <v>0.1163275542169302</v>
+        <v>0.1200015897915279</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.984295805352133</v>
+        <v>5.006273548520568</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007962560085896375</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2036353129905777</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2020467947304638</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7302291113193178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7264436190827581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94908592516623</v>
+        <v>1.928573376963897</v>
       </c>
       <c r="C7">
-        <v>0.4808077639417263</v>
+        <v>0.4692111415926092</v>
       </c>
       <c r="D7">
-        <v>0.1214499536382192</v>
+        <v>0.1250943480428361</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210351703814382</v>
+        <v>5.230406674170723</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007927911012089079</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2132789019544035</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2116781107273766</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7702386313974685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7661466202510141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.411026846336995</v>
+        <v>2.384227515866769</v>
       </c>
       <c r="C8">
-        <v>0.5959051748149591</v>
+        <v>0.582223593780526</v>
       </c>
       <c r="D8">
-        <v>0.1446810583920524</v>
+        <v>0.1481834506829216</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.235477070793763</v>
+        <v>6.246789368062451</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007777924172073461</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2571410519977206</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2554709086282543</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9519823752932624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9464996129470222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.378849766612689</v>
+        <v>3.339285175710756</v>
       </c>
       <c r="C9">
-        <v>0.8380193764912178</v>
+        <v>0.8201204227341066</v>
       </c>
       <c r="D9">
-        <v>0.1935468035649421</v>
+        <v>0.196712510389176</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.385234595955666</v>
+        <v>8.377816465756553</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007491159962295171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3497479565217532</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3478652065007495</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.334745297905101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.326284355833522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.149404090135079</v>
+        <v>4.099765394785265</v>
       </c>
       <c r="C10">
-        <v>1.032182856903006</v>
+        <v>1.010966766653098</v>
       </c>
       <c r="D10">
-        <v>0.232714724320644</v>
+        <v>0.235574085020346</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.09725392799339</v>
+        <v>10.07425122769928</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007281308128261664</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.424055805406546</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4219403475715211</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.641228837513836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.630275663061965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.519126766296495</v>
+        <v>4.464617373510748</v>
       </c>
       <c r="C11">
-        <v>1.125878155083001</v>
+        <v>1.103060841344217</v>
       </c>
       <c r="D11">
-        <v>0.2516008068169526</v>
+        <v>0.2543004553926949</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.91847449657837</v>
+        <v>10.88771293902914</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007184981431862051</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.45986961792768</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4576217672405321</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.788801858432137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.77659955297689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.662561630914979</v>
+        <v>4.60615040577602</v>
       </c>
       <c r="C12">
-        <v>1.162328213690643</v>
+        <v>1.138886050016993</v>
       </c>
       <c r="D12">
-        <v>0.258944420825955</v>
+        <v>0.2615797751602855</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.23699455500616</v>
+        <v>11.20316662967343</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007148270270594774</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4737899614428116</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4714869587805595</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.846142038753243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.833444238710854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.631505529028288</v>
+        <v>4.575506760587814</v>
       </c>
       <c r="C13">
-        <v>1.154431252612994</v>
+        <v>1.131124585930934</v>
       </c>
       <c r="D13">
-        <v>0.2573536046574105</v>
+        <v>0.260002992807685</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.16803362851834</v>
+        <v>11.13487242482262</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007156189120950925</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4707747470146089</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4684838691759197</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.833722713733664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.821132741942222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.530854132100785</v>
+        <v>4.476189534670198</v>
       </c>
       <c r="C14">
-        <v>1.128856187878313</v>
+        <v>1.105987874103477</v>
       </c>
       <c r="D14">
-        <v>0.2522008746661726</v>
+        <v>0.2548953162726377</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.94451875653965</v>
+        <v>10.91350771715088</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007181966596900846</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4610072150407163</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4587549359086793</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.793488186071372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.781245607122315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.46967126907299</v>
+        <v>4.415815853779975</v>
       </c>
       <c r="C15">
-        <v>1.113323671120327</v>
+        <v>1.090721268236905</v>
       </c>
       <c r="D15">
-        <v>0.2490709487170619</v>
+        <v>0.2517924589234752</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.80863993162546</v>
+        <v>10.7789281060721</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007197721842083096</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4550733266638005</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4528439941887115</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.769042782352059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.757009856958135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.125681880441448</v>
+        <v>4.076354443312312</v>
       </c>
       <c r="C16">
-        <v>1.026183553828218</v>
+        <v>1.005069839092982</v>
       </c>
       <c r="D16">
-        <v>0.2315050504410436</v>
+        <v>0.2343743693270568</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.04455493672711</v>
+        <v>10.0220433082593</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007287577046165843</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.42176132368742</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4196538902549634</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.631771562292741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.620897238433272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.920002241934412</v>
+        <v>3.873368883612159</v>
       </c>
       <c r="C17">
-        <v>0.9742279119422221</v>
+        <v>0.954000581361953</v>
       </c>
       <c r="D17">
-        <v>0.2210272237749393</v>
+        <v>0.2239814547106391</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.587608085787366</v>
+        <v>9.569322225160221</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007342407915646534</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4018851090985152</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3998449238018296</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.54983150742261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.539634762600102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.803459694640139</v>
+        <v>3.75834998874376</v>
       </c>
       <c r="C18">
-        <v>0.9448356430709737</v>
+        <v>0.9251098452302244</v>
       </c>
       <c r="D18">
-        <v>0.2150984975493486</v>
+        <v>0.2180997181314694</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.32867416536817</v>
+        <v>9.312758235509079</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007373871664611843</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3906371655619978</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3886332531224497</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.503448715263403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.493631275448038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764284463529805</v>
+        <v>3.71968660226139</v>
       </c>
       <c r="C19">
-        <v>0.9349629964750363</v>
+        <v>0.9154057197014538</v>
       </c>
       <c r="D19">
-        <v>0.2131069058753923</v>
+        <v>0.2161237415124475</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.24163267623436</v>
+        <v>9.226509577165359</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007384515099388225</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3868585972524059</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3848665833268043</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.487864915630468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.478174262403243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.941710773031218</v>
+        <v>3.894793407778536</v>
       </c>
       <c r="C20">
-        <v>0.9797065499658402</v>
+        <v>0.9593857534193546</v>
       </c>
       <c r="D20">
-        <v>0.2221322297772019</v>
+        <v>0.2250776186773749</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.635838819982354</v>
+        <v>9.617109594429792</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007336579406701643</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4039814357662408</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4019343483168356</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.558474996112437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.548207237073782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.560318722857005</v>
+        <v>4.505263957795535</v>
       </c>
       <c r="C21">
-        <v>1.136340075946919</v>
+        <v>1.113343559457064</v>
       </c>
       <c r="D21">
-        <v>0.2537088006659047</v>
+        <v>0.2563901210064188</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.00995268876039</v>
+        <v>10.97831388053595</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007174402487294747</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4638658157763302</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4616023471103219</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.805263879200396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.792919929183128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.985033432039927</v>
+        <v>4.924314301927552</v>
       </c>
       <c r="C22">
-        <v>1.244490270528786</v>
+        <v>1.219633405697721</v>
       </c>
       <c r="D22">
-        <v>0.2754889021556153</v>
+        <v>0.2779747619682098</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.95289991609656</v>
+        <v>11.9120533448675</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007066974030822006</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5051377425923107</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5027027133312743</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.975235060887016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.961398881575064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.75622281498363</v>
+        <v>4.698565248328464</v>
       </c>
       <c r="C23">
-        <v>1.18616102204308</v>
+        <v>1.162309472807721</v>
       </c>
       <c r="D23">
-        <v>0.2637447952857457</v>
+        <v>0.2663374430049004</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.44495708106831</v>
+        <v>11.40910881659755</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007124485323071895</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.482887510790782</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4805473203239004</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.883611134421528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.870586265316888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.931891082503057</v>
+        <v>3.885102194170315</v>
       </c>
       <c r="C24">
-        <v>0.9772281839814241</v>
+        <v>0.9569496681357919</v>
       </c>
       <c r="D24">
-        <v>0.2216323630646286</v>
+        <v>0.224581755078475</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.614022063950529</v>
+        <v>9.595493466800491</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007339214651198553</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4030331334550823</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4009891738254652</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.554565035291532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.544329413272806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108388925136865</v>
+        <v>3.072362454632128</v>
       </c>
       <c r="C25">
-        <v>0.7701873587922137</v>
+        <v>0.7534555068530437</v>
       </c>
       <c r="D25">
-        <v>0.1798574922660094</v>
+        <v>0.1831225873828402</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.784327396721665</v>
+        <v>7.782221958165337</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007568288394846926</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3237815951241032</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3219671500505612</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.227527456877453</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.219912304523845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.511186204970784</v>
+        <v>3.462428000156649</v>
       </c>
       <c r="C2">
-        <v>0.6137559749721504</v>
+        <v>0.4672973300542367</v>
       </c>
       <c r="D2">
-        <v>0.1546211446285639</v>
+        <v>0.03929219729353761</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.530045725769924</v>
+        <v>2.127135366082484</v>
       </c>
       <c r="G2">
-        <v>0.0007737898012809818</v>
+        <v>0.0007903299388162386</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2677082723662352</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4057151692844485</v>
       </c>
       <c r="M2">
-        <v>0.9968519763563464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.714812472387692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.147129452725153</v>
+        <v>2.992982983012269</v>
       </c>
       <c r="C3">
-        <v>0.5233922263863349</v>
+        <v>0.4151818325312888</v>
       </c>
       <c r="D3">
-        <v>0.1361673552999036</v>
+        <v>0.0404323668329134</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.717866453732398</v>
+        <v>1.910774459027792</v>
       </c>
       <c r="G3">
-        <v>0.0007854630046687328</v>
+        <v>0.0007990884945791005</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2326578162162676</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3561978310220297</v>
       </c>
       <c r="M3">
-        <v>0.8525813545124592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.549200758636474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929755370828502</v>
+        <v>2.709138383516574</v>
       </c>
       <c r="C4">
-        <v>0.4695040718434029</v>
+        <v>0.3833762744917522</v>
       </c>
       <c r="D4">
-        <v>0.1251542343099743</v>
+        <v>0.04121845774185573</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.233042644124311</v>
+        <v>1.782826897724206</v>
       </c>
       <c r="G4">
-        <v>0.0007927507295557135</v>
+        <v>0.0008046008288926828</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.21179143977254</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3265156448582758</v>
       </c>
       <c r="M4">
-        <v>0.7666137060250477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.451570191080791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.842482766360888</v>
+        <v>2.594416529011539</v>
       </c>
       <c r="C5">
-        <v>0.4478773958928457</v>
+        <v>0.3704489957006842</v>
       </c>
       <c r="D5">
-        <v>0.120732249635445</v>
+        <v>0.04155876067464703</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.038425618603554</v>
+        <v>1.731789049645954</v>
       </c>
       <c r="G5">
-        <v>0.0007957549653702874</v>
+        <v>0.0008068828447100499</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2034278136989016</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3145801671227275</v>
       </c>
       <c r="M5">
-        <v>0.7321374966688268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.412698860768856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.828063826805845</v>
+        <v>2.575419894208721</v>
       </c>
       <c r="C6">
-        <v>0.4443045981067826</v>
+        <v>0.3683040598878051</v>
       </c>
       <c r="D6">
-        <v>0.1200015897915279</v>
+        <v>0.04161642793203413</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.006273548520568</v>
+        <v>1.72337720977599</v>
       </c>
       <c r="G6">
-        <v>0.0007962560085896375</v>
+        <v>0.0008072639791644737</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2020467947304638</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.312607383641037</v>
       </c>
       <c r="M6">
-        <v>0.7264436190827581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.40629657995423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928573376963897</v>
+        <v>2.707587568641202</v>
       </c>
       <c r="C7">
-        <v>0.4692111415926092</v>
+        <v>0.3832018147424492</v>
       </c>
       <c r="D7">
-        <v>0.1250943480428361</v>
+        <v>0.04122296843240036</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.230406674170723</v>
+        <v>1.782134285992441</v>
       </c>
       <c r="G7">
-        <v>0.0007927911012089079</v>
+        <v>0.0008046314580857111</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2116781107273766</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3263540566704677</v>
       </c>
       <c r="M7">
-        <v>0.7661466202510141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.451042391665041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.384227515866769</v>
+        <v>3.299550767897983</v>
       </c>
       <c r="C8">
-        <v>0.582223593780526</v>
+        <v>0.4492782619516333</v>
       </c>
       <c r="D8">
-        <v>0.1481834506829216</v>
+        <v>0.03966641680085559</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.246789368062451</v>
+        <v>2.051435404409901</v>
       </c>
       <c r="G8">
-        <v>0.0007777924172073461</v>
+        <v>0.0007933231356119785</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2554709086282543</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3884784342262577</v>
       </c>
       <c r="M8">
-        <v>0.9464996129470222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.656801039737203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.339285175710756</v>
+        <v>4.503298137618913</v>
       </c>
       <c r="C9">
-        <v>0.8201204227341066</v>
+        <v>0.5811536460354603</v>
       </c>
       <c r="D9">
-        <v>0.196712510389176</v>
+        <v>0.03738159021196097</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.377816465756553</v>
+        <v>2.624945111653716</v>
       </c>
       <c r="G9">
-        <v>0.0007491159962295171</v>
+        <v>0.0007721217503399158</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3478652065007495</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.517099167133793</v>
       </c>
       <c r="M9">
-        <v>1.326284355833522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.097801333648775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.099765394785265</v>
+        <v>5.426574671196136</v>
       </c>
       <c r="C10">
-        <v>1.010966766653098</v>
+        <v>0.680668648659605</v>
       </c>
       <c r="D10">
-        <v>0.235574085020346</v>
+        <v>0.0363075234177721</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.07425122769928</v>
+        <v>3.084298586813077</v>
       </c>
       <c r="G10">
-        <v>0.0007281308128261664</v>
+        <v>0.0007569923879659449</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4219403475715211</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6174260417251247</v>
       </c>
       <c r="M10">
-        <v>1.630275663061965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.453074677928768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.464617373510748</v>
+        <v>5.858377610504817</v>
       </c>
       <c r="C11">
-        <v>1.103060841344217</v>
+        <v>0.7268361794752991</v>
       </c>
       <c r="D11">
-        <v>0.2543004553926949</v>
+        <v>0.03598709236677067</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.88771293902914</v>
+        <v>3.304218190739419</v>
       </c>
       <c r="G11">
-        <v>0.0007184981431862051</v>
+        <v>0.0007501687104896834</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4576217672405321</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6647735759580513</v>
       </c>
       <c r="M11">
-        <v>1.77659955297689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.623688193669892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.60615040577602</v>
+        <v>6.023912613860148</v>
       </c>
       <c r="C12">
-        <v>1.138886050016993</v>
+        <v>0.7444797797900833</v>
       </c>
       <c r="D12">
-        <v>0.2615797751602855</v>
+        <v>0.03589366126146132</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.20316662967343</v>
+        <v>3.389335390559495</v>
       </c>
       <c r="G12">
-        <v>0.0007148270270594774</v>
+        <v>0.0007475895192637179</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4714869587805595</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6829914112280306</v>
       </c>
       <c r="M12">
-        <v>1.833444238710854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.689804330059957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.575506760587814</v>
+        <v>5.988166152008603</v>
       </c>
       <c r="C13">
-        <v>1.131124585930934</v>
+        <v>0.7406721947290578</v>
       </c>
       <c r="D13">
-        <v>0.260002992807685</v>
+        <v>0.03591247590948754</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.13487242482262</v>
+        <v>3.370917514252767</v>
       </c>
       <c r="G13">
-        <v>0.0007156189120950925</v>
+        <v>0.0007481448453519593</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4684838691759197</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6790543034806404</v>
       </c>
       <c r="M13">
-        <v>1.821132741942222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.675494187092156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.476189534670198</v>
+        <v>5.871953754048604</v>
       </c>
       <c r="C14">
-        <v>1.105987874103477</v>
+        <v>0.7282843028571051</v>
       </c>
       <c r="D14">
-        <v>0.2548953162726377</v>
+        <v>0.0359788227955633</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.91350771715088</v>
+        <v>3.311182346525868</v>
       </c>
       <c r="G14">
-        <v>0.0007181966596900846</v>
+        <v>0.0007499564457939418</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4587549359086793</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6662663226343142</v>
       </c>
       <c r="M14">
-        <v>1.781245607122315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.629096033022492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.415815853779975</v>
+        <v>5.801043866338375</v>
       </c>
       <c r="C15">
-        <v>1.090721268236905</v>
+        <v>0.7207183536190485</v>
       </c>
       <c r="D15">
-        <v>0.2517924589234752</v>
+        <v>0.03602321807437292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.7789281060721</v>
+        <v>3.274840701266783</v>
       </c>
       <c r="G15">
-        <v>0.0007197721842083096</v>
+        <v>0.0007510666093771782</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4528439941887115</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6584722389992521</v>
       </c>
       <c r="M15">
-        <v>1.757009856958135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.600879182459011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.076354443312312</v>
+        <v>5.398619403145403</v>
       </c>
       <c r="C16">
-        <v>1.005069839092982</v>
+        <v>0.6776721700381074</v>
       </c>
       <c r="D16">
-        <v>0.2343743693270568</v>
+        <v>0.03633215303142379</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.0220433082593</v>
+        <v>3.070168424513639</v>
       </c>
       <c r="G16">
-        <v>0.0007287577046165843</v>
+        <v>0.0007574392122581965</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4196538902549634</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6143696584675524</v>
       </c>
       <c r="M16">
-        <v>1.620897238433272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.442123391319441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.873368883612159</v>
+        <v>5.154983352573424</v>
       </c>
       <c r="C17">
-        <v>0.954000581361953</v>
+        <v>0.6515158317235432</v>
       </c>
       <c r="D17">
-        <v>0.2239814547106391</v>
+        <v>0.03656721049812006</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.569322225160221</v>
+        <v>2.947590475290298</v>
       </c>
       <c r="G17">
-        <v>0.0007342407915646534</v>
+        <v>0.0007613611967609528</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3998449238018296</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5877802275792874</v>
       </c>
       <c r="M17">
-        <v>1.539634762600102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.347179657562677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.75834998874376</v>
+        <v>5.015939074053563</v>
       </c>
       <c r="C18">
-        <v>0.9251098452302244</v>
+        <v>0.6365537172104325</v>
       </c>
       <c r="D18">
-        <v>0.2180997181314694</v>
+        <v>0.0367179819534087</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.312758235509079</v>
+        <v>2.878100468017806</v>
       </c>
       <c r="G18">
-        <v>0.0007373871664611843</v>
+        <v>0.0007636227950077357</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3886332531224497</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5726446023551262</v>
       </c>
       <c r="M18">
-        <v>1.493631275448038</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.29340293092973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.71968660226139</v>
+        <v>4.969038937985943</v>
       </c>
       <c r="C19">
-        <v>0.9154057197014538</v>
+        <v>0.6315010470370908</v>
       </c>
       <c r="D19">
-        <v>0.2161237415124475</v>
+        <v>0.03677160139127977</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.226509577165359</v>
+        <v>2.854739024440306</v>
       </c>
       <c r="G19">
-        <v>0.0007384515099388225</v>
+        <v>0.0007643896287918787</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3848665833268043</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5675458565700637</v>
       </c>
       <c r="M19">
-        <v>1.478174262403243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.27533197393771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.894793407778536</v>
+        <v>5.180803948039568</v>
       </c>
       <c r="C20">
-        <v>0.9593857534193546</v>
+        <v>0.6542914833224245</v>
       </c>
       <c r="D20">
-        <v>0.2250776186773749</v>
+        <v>0.03654055146589741</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.617109594429792</v>
+        <v>2.960532420653209</v>
       </c>
       <c r="G20">
-        <v>0.0007336579406701643</v>
+        <v>0.0007609431219966519</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4019343483168356</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.590594084391924</v>
       </c>
       <c r="M20">
-        <v>1.548207237073782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.357198973268893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.505263957795535</v>
+        <v>5.906030495866673</v>
       </c>
       <c r="C21">
-        <v>1.113343559457064</v>
+        <v>0.7319182797554902</v>
       </c>
       <c r="D21">
-        <v>0.2563901210064188</v>
+        <v>0.03595854482163219</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.97831388053595</v>
+        <v>3.32867583295581</v>
       </c>
       <c r="G21">
-        <v>0.0007174402487294747</v>
+        <v>0.0007494242367812598</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4616023471103219</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6700142658105932</v>
       </c>
       <c r="M21">
-        <v>1.792919929183128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.6426814872259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.924314301927552</v>
+        <v>6.391971988928617</v>
       </c>
       <c r="C22">
-        <v>1.219633405697721</v>
+        <v>0.7836086479416053</v>
       </c>
       <c r="D22">
-        <v>0.2779747619682098</v>
+        <v>0.03574305595066818</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.9120533448675</v>
+        <v>3.580145765907702</v>
       </c>
       <c r="G22">
-        <v>0.0007066974030822006</v>
+        <v>0.0007419217864732477</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5027027133312743</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7236251722119675</v>
       </c>
       <c r="M22">
-        <v>1.961398881575064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.838177147010626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.698565248328464</v>
+        <v>6.131401264713872</v>
       </c>
       <c r="C23">
-        <v>1.162309472807721</v>
+        <v>0.7559210970293009</v>
       </c>
       <c r="D23">
-        <v>0.2663374430049004</v>
+        <v>0.03584157667597054</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.40910881659755</v>
+        <v>3.444839933354643</v>
       </c>
       <c r="G23">
-        <v>0.0007124485323071895</v>
+        <v>0.0007459249757896247</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4805473203239004</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6948402159438416</v>
       </c>
       <c r="M23">
-        <v>1.870586265316888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.732942096123978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.885102194170315</v>
+        <v>5.16912728698469</v>
       </c>
       <c r="C24">
-        <v>0.9569496681357919</v>
+        <v>0.6530363783692223</v>
       </c>
       <c r="D24">
-        <v>0.224581755078475</v>
+        <v>0.03655255559249682</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.595493466800491</v>
+        <v>2.954678328766278</v>
       </c>
       <c r="G24">
-        <v>0.0007339214651198553</v>
+        <v>0.0007611321121166308</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4009891738254652</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5893214725615508</v>
       </c>
       <c r="M24">
-        <v>1.544329413272806</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.352666740666791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.072362454632128</v>
+        <v>4.171840337390393</v>
       </c>
       <c r="C25">
-        <v>0.7534555068530437</v>
+        <v>0.5451150606748172</v>
       </c>
       <c r="D25">
-        <v>0.1831225873828402</v>
+        <v>0.03790459352214626</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.782221958165337</v>
+        <v>2.463945311784997</v>
       </c>
       <c r="G25">
-        <v>0.0007568288394846926</v>
+        <v>0.0007777670932740669</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3219671500505612</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4814145832527004</v>
       </c>
       <c r="M25">
-        <v>1.219912304523845</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.973678090680906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.462428000156649</v>
+        <v>0.8755454908157105</v>
       </c>
       <c r="C2">
-        <v>0.4672973300542367</v>
+        <v>0.1000200569537384</v>
       </c>
       <c r="D2">
-        <v>0.03929219729353761</v>
+        <v>0.04000981687023142</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.127135366082484</v>
+        <v>1.40015178389433</v>
       </c>
       <c r="G2">
-        <v>0.0007903299388162386</v>
+        <v>1.125115793391686</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7932081722144062</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8850340761292088</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0888019192035685</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8207202251250294</v>
       </c>
       <c r="L2">
-        <v>0.4057151692844485</v>
+        <v>0.1820356802226328</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2014197621864398</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.714812472387692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992982983012269</v>
+        <v>0.7628672363422595</v>
       </c>
       <c r="C3">
-        <v>0.4151818325312888</v>
+        <v>0.09060062314632233</v>
       </c>
       <c r="D3">
-        <v>0.0404323668329134</v>
+        <v>0.03613650606138918</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.910774459027792</v>
+        <v>1.370554053004838</v>
       </c>
       <c r="G3">
-        <v>0.0007990884945791005</v>
+        <v>1.100062012115927</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7892817057920922</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8818078308453963</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.09021565217682515</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.711913901733908</v>
       </c>
       <c r="L3">
-        <v>0.3561978310220297</v>
+        <v>0.1693364828308006</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1782401290290068</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.549200758636474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.709138383516574</v>
+        <v>0.6941266499173651</v>
       </c>
       <c r="C4">
-        <v>0.3833762744917522</v>
+        <v>0.08481979595858746</v>
       </c>
       <c r="D4">
-        <v>0.04121845774185573</v>
+        <v>0.03377973157017777</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.782826897724206</v>
+        <v>1.354291079421557</v>
       </c>
       <c r="G4">
-        <v>0.0008046008288926828</v>
+        <v>1.086387841868287</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7878560830112065</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8810022432956615</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09114595047739549</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6454408271161469</v>
       </c>
       <c r="L4">
-        <v>0.3265156448582758</v>
+        <v>0.1617171705785196</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1641523720288305</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.451570191080791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.594416529011539</v>
+        <v>0.6662118550587763</v>
       </c>
       <c r="C5">
-        <v>0.3704489957006842</v>
+        <v>0.08246324512769121</v>
       </c>
       <c r="D5">
-        <v>0.04155876067464703</v>
+        <v>0.03282437026336282</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.731789049645954</v>
+        <v>1.348124610542854</v>
       </c>
       <c r="G5">
-        <v>0.0008068828447100499</v>
+        <v>1.081226227408962</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7875143967696516</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8809590224903161</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09154052803539159</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6184224968501582</v>
       </c>
       <c r="L5">
-        <v>0.3145801671227275</v>
+        <v>0.1586547040380353</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1584446518564278</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.412698860768856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.575419894208721</v>
+        <v>0.6615821176838779</v>
       </c>
       <c r="C6">
-        <v>0.3683040598878051</v>
+        <v>0.08207185001405293</v>
       </c>
       <c r="D6">
-        <v>0.04161642793203413</v>
+        <v>0.03266602803199703</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.72337720977599</v>
+        <v>1.347127954967881</v>
       </c>
       <c r="G6">
-        <v>0.0008072639791644737</v>
+        <v>1.080393414953164</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.787471871745467</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8809687665507369</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09160697673314999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6139399537129577</v>
       </c>
       <c r="L6">
-        <v>0.312607383641037</v>
+        <v>0.1581486835314507</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1574988012546363</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.40629657995423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.707587568641202</v>
+        <v>0.6937498043913592</v>
       </c>
       <c r="C7">
-        <v>0.3832018147424492</v>
+        <v>0.08478801992327334</v>
       </c>
       <c r="D7">
-        <v>0.04122296843240036</v>
+        <v>0.03376682726004532</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.782134285992441</v>
+        <v>1.354206075425452</v>
       </c>
       <c r="G7">
-        <v>0.0008046314580857111</v>
+        <v>1.086316591926817</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7878505170045003</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8810005196524813</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09115120947088329</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6450761831523124</v>
       </c>
       <c r="L7">
-        <v>0.3263540566704677</v>
+        <v>0.1616757001014619</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1640752655906006</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.451042391665041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.299550767897983</v>
+        <v>0.8365929916363086</v>
       </c>
       <c r="C8">
-        <v>0.4492782619516333</v>
+        <v>0.09677072875958004</v>
       </c>
       <c r="D8">
-        <v>0.03966641680085559</v>
+        <v>0.03866962658332795</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.051435404409901</v>
+        <v>1.389537966121381</v>
       </c>
       <c r="G8">
-        <v>0.0007933231356119785</v>
+        <v>1.116110790644683</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7916445891056583</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8836712379855101</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08927633963747361</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7831256103332862</v>
       </c>
       <c r="L8">
-        <v>0.3884784342262577</v>
+        <v>0.177618612513335</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1933954088859977</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.656801039737203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.503298137618913</v>
+        <v>1.120928004315289</v>
       </c>
       <c r="C9">
-        <v>0.5811536460354603</v>
+        <v>0.120364294981556</v>
       </c>
       <c r="D9">
-        <v>0.03738159021196097</v>
+        <v>0.04847177387912893</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.624945111653716</v>
+        <v>1.474917282852203</v>
       </c>
       <c r="G9">
-        <v>0.0007721217503399158</v>
+        <v>1.189010448953624</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.8073098062557875</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.8987372165385494</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08610238043958063</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.057184882576479</v>
       </c>
       <c r="L9">
-        <v>0.517099167133793</v>
+        <v>0.2104073965669286</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2521967296773724</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.097801333648775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.426574671196136</v>
+        <v>1.333452580386677</v>
       </c>
       <c r="C10">
-        <v>0.680668648659605</v>
+        <v>0.1378684594889421</v>
       </c>
       <c r="D10">
-        <v>0.0363075234177721</v>
+        <v>0.05581487134638508</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.084298586813077</v>
+        <v>1.548852085755868</v>
       </c>
       <c r="G10">
-        <v>0.0007569923879659449</v>
+        <v>1.252753121565547</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8244401321826587</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.9165452431464303</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0840895994689248</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.26162100244548</v>
       </c>
       <c r="L10">
-        <v>0.6174260417251247</v>
+        <v>0.2355951828680958</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2964304308939703</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.453074677928768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.858377610504817</v>
+        <v>1.43117584714733</v>
       </c>
       <c r="C11">
-        <v>0.7268361794752991</v>
+        <v>0.145895671040762</v>
       </c>
       <c r="D11">
-        <v>0.03598709236677067</v>
+        <v>0.05919272328485192</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.304218190739419</v>
+        <v>1.585255266090627</v>
       </c>
       <c r="G11">
-        <v>0.0007501687104896834</v>
+        <v>1.284289250249884</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8335997162903084</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.926289271556108</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08324626262647072</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.355546616852166</v>
       </c>
       <c r="L11">
-        <v>0.6647735759580513</v>
+        <v>0.2473325436814804</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3168347276054035</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.623688193669892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.023912613860148</v>
+        <v>1.468353846420854</v>
       </c>
       <c r="C12">
-        <v>0.7444797797900833</v>
+        <v>0.1489470938059583</v>
       </c>
       <c r="D12">
-        <v>0.03589366126146132</v>
+        <v>0.06047779265921349</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.389335390559495</v>
+        <v>1.599468659936861</v>
       </c>
       <c r="G12">
-        <v>0.0007475895192637179</v>
+        <v>1.2966257840026</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8372779758299771</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9302315599124711</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08293758466271051</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.391269516085941</v>
       </c>
       <c r="L12">
-        <v>0.6829914112280306</v>
+        <v>0.2518209316991573</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3246069460039678</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.689804330059957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.988166152008603</v>
+        <v>1.460338864800434</v>
       </c>
       <c r="C13">
-        <v>0.7406721947290578</v>
+        <v>0.148289354521367</v>
       </c>
       <c r="D13">
-        <v>0.03591247590948754</v>
+        <v>0.06020075582238604</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.370917514252767</v>
+        <v>1.596387999958935</v>
       </c>
       <c r="G13">
-        <v>0.0007481448453519593</v>
+        <v>1.293950853938597</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8364762485363002</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9293710195161538</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08300358450556011</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.383568672927908</v>
       </c>
       <c r="L13">
-        <v>0.6790543034806404</v>
+        <v>0.250852274023714</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3229309502287236</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.675494187092156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.871953754048604</v>
+        <v>1.434230917286754</v>
       </c>
       <c r="C14">
-        <v>0.7282843028571051</v>
+        <v>0.1461464644923325</v>
       </c>
       <c r="D14">
-        <v>0.0359788227955633</v>
+        <v>0.05929832405540481</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.311182346525868</v>
+        <v>1.586415846695687</v>
       </c>
       <c r="G14">
-        <v>0.0007499564457939418</v>
+        <v>1.285296101940986</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8338980466300683</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9266084497170084</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08322065187314109</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.358482315994422</v>
       </c>
       <c r="L14">
-        <v>0.6662663226343142</v>
+        <v>0.2477009089325151</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.317473209814537</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.629096033022492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.801043866338375</v>
+        <v>1.418262171675821</v>
       </c>
       <c r="C15">
-        <v>0.7207183536190485</v>
+        <v>0.1448354805125689</v>
       </c>
       <c r="D15">
-        <v>0.03602321807437292</v>
+        <v>0.05874635103005232</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.274840701266783</v>
+        <v>1.58036432193623</v>
       </c>
       <c r="G15">
-        <v>0.0007510666093771782</v>
+        <v>1.280047100210567</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8323465441453806</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9249496717773127</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08335501083368868</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.343137108554856</v>
       </c>
       <c r="L15">
-        <v>0.6584722389992521</v>
+        <v>0.2457764080350273</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3141362730907815</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.600879182459011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.398619403145403</v>
+        <v>1.327089007084822</v>
       </c>
       <c r="C16">
-        <v>0.6776721700381074</v>
+        <v>0.1373453619787028</v>
       </c>
       <c r="D16">
-        <v>0.03633215303142379</v>
+        <v>0.055594921528062</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.070168424513639</v>
+        <v>1.546531301244144</v>
       </c>
       <c r="G16">
-        <v>0.0007574392122581965</v>
+        <v>1.250745714767149</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8238701395689105</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.9159428644003569</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.0841461916424624</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.255503234637445</v>
       </c>
       <c r="L16">
-        <v>0.6143696584675524</v>
+        <v>0.2348340357263652</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2951030569150817</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.442123391319441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.154983352573424</v>
+        <v>1.271439990136486</v>
       </c>
       <c r="C17">
-        <v>0.6515158317235432</v>
+        <v>0.1327685889096983</v>
       </c>
       <c r="D17">
-        <v>0.03656721049812006</v>
+        <v>0.0536715994312118</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.947590475290298</v>
+        <v>1.526505898265526</v>
       </c>
       <c r="G17">
-        <v>0.0007613611967609528</v>
+        <v>1.233440803796668</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.8190292861550432</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.9108494251055248</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08465026325490221</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.201995171071076</v>
       </c>
       <c r="L17">
-        <v>0.5877802275792874</v>
+        <v>0.22819521866397</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2835024877189909</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.347179657562677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.015939074053563</v>
+        <v>1.239529065072958</v>
       </c>
       <c r="C18">
-        <v>0.6365537172104325</v>
+        <v>0.1301420624538281</v>
       </c>
       <c r="D18">
-        <v>0.0367179819534087</v>
+        <v>0.05256884288502306</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.878100468017806</v>
+        <v>1.515246602269684</v>
       </c>
       <c r="G18">
-        <v>0.0007636227950077357</v>
+        <v>1.2237245982069</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.8163727689120748</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.9080734282002112</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08494697797702777</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.171304542693605</v>
       </c>
       <c r="L18">
-        <v>0.5726446023551262</v>
+        <v>0.2244028095101669</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2768563856155453</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.29340293092973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.969038937985943</v>
+        <v>1.228740574812917</v>
       </c>
       <c r="C19">
-        <v>0.6315010470370908</v>
+        <v>0.1292537107889444</v>
       </c>
       <c r="D19">
-        <v>0.03677160139127977</v>
+        <v>0.05219605093143542</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.854739024440306</v>
+        <v>1.511477967866739</v>
       </c>
       <c r="G19">
-        <v>0.0007643896287918787</v>
+        <v>1.22047472628735</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.8154948853812982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.907159434255604</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08504859777571738</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.160927314439334</v>
       </c>
       <c r="L19">
-        <v>0.5675458565700637</v>
+        <v>0.2231231376845528</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2746104905942914</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.27533197393771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.180803948039568</v>
+        <v>1.27735373789406</v>
       </c>
       <c r="C20">
-        <v>0.6542914833224245</v>
+        <v>0.1332551654378307</v>
       </c>
       <c r="D20">
-        <v>0.03654055146589741</v>
+        <v>0.05387597545831113</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.960532420653209</v>
+        <v>1.528610643210556</v>
       </c>
       <c r="G20">
-        <v>0.0007609431219966519</v>
+        <v>1.235258194585995</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8195312829473806</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.9113756187211024</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08459589967188386</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.207682162085547</v>
       </c>
       <c r="L20">
-        <v>0.590594084391924</v>
+        <v>0.2288992098727363</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2847346376797262</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.357198973268893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.906030495866673</v>
+        <v>1.44189459298741</v>
       </c>
       <c r="C21">
-        <v>0.7319182797554902</v>
+        <v>0.1467755455894633</v>
       </c>
       <c r="D21">
-        <v>0.03595854482163219</v>
+        <v>0.05956322390906621</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.32867583295581</v>
+        <v>1.589333035303184</v>
       </c>
       <c r="G21">
-        <v>0.0007494242367812598</v>
+        <v>1.287827260869975</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8346495251032309</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9274128973045634</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08315660185978757</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.365846387496589</v>
       </c>
       <c r="L21">
-        <v>0.6700142658105932</v>
+        <v>0.2486253255818127</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3190750025349161</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.6426814872259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.391971988928617</v>
+        <v>1.550447490191061</v>
       </c>
       <c r="C22">
-        <v>0.7836086479416053</v>
+        <v>0.1556813235161343</v>
       </c>
       <c r="D22">
-        <v>0.03574305595066818</v>
+        <v>0.0633151486986776</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.580145765907702</v>
+        <v>1.631530717477048</v>
       </c>
       <c r="G22">
-        <v>0.0007419217864732477</v>
+        <v>1.324498863555263</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8457594763428347</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9393740055242787</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08227830727776819</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.470132641844799</v>
       </c>
       <c r="L22">
-        <v>0.7236251722119675</v>
+        <v>0.2617740645625446</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.341786536001969</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.838177147010626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.131401264713872</v>
+        <v>1.492410048902315</v>
       </c>
       <c r="C23">
-        <v>0.7559210970293009</v>
+        <v>0.1509209340742075</v>
       </c>
       <c r="D23">
-        <v>0.03584157667597054</v>
+        <v>0.06130927572555578</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.444839933354643</v>
+        <v>1.608768636004683</v>
       </c>
       <c r="G23">
-        <v>0.0007459249757896247</v>
+        <v>1.304704439771598</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8397127790547358</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.932849058321402</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0827412646168284</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.414381459805583</v>
       </c>
       <c r="L23">
-        <v>0.6948402159438416</v>
+        <v>0.2547316169000453</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.329638682044731</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.732942096123978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.16912728698469</v>
+        <v>1.274679877411415</v>
       </c>
       <c r="C24">
-        <v>0.6530363783692223</v>
+        <v>0.1330351696639838</v>
       </c>
       <c r="D24">
-        <v>0.03655255559249682</v>
+        <v>0.05378356779489479</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.954678328766278</v>
+        <v>1.527658300431938</v>
       </c>
       <c r="G24">
-        <v>0.0007611321121166308</v>
+        <v>1.234435829847399</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8193039369934354</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.9111372534480253</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08462045592303724</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.205110851235276</v>
       </c>
       <c r="L24">
-        <v>0.5893214725615508</v>
+        <v>0.228580859912924</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.284177510730224</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.352666740666791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.171840337390393</v>
+        <v>1.043452066454961</v>
       </c>
       <c r="C25">
-        <v>0.5451150606748172</v>
+        <v>0.1139603715818964</v>
       </c>
       <c r="D25">
-        <v>0.03790459352214626</v>
+        <v>0.04579726897713954</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.463945311784997</v>
+        <v>1.449958736720532</v>
       </c>
       <c r="G25">
-        <v>0.0007777670932740669</v>
+        <v>1.167605031988302</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.8021313450814631</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.8935352399643506</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08690594938986962</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9825830796096398</v>
       </c>
       <c r="L25">
-        <v>0.4814145832527004</v>
+        <v>0.2013572380507043</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2361262749258017</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.973678090680906</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8755454908157105</v>
+        <v>0.6621999664170914</v>
       </c>
       <c r="C2">
-        <v>0.1000200569537384</v>
+        <v>0.0555262346195704</v>
       </c>
       <c r="D2">
-        <v>0.04000981687023142</v>
+        <v>0.0821304690908633</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.40015178389433</v>
+        <v>2.630051839096126</v>
       </c>
       <c r="G2">
-        <v>1.125115793391686</v>
+        <v>1.918020106059501</v>
       </c>
       <c r="H2">
-        <v>0.7932081722144062</v>
+        <v>1.661074597085232</v>
       </c>
       <c r="I2">
-        <v>0.8850340761292088</v>
+        <v>1.722858182555314</v>
       </c>
       <c r="J2">
-        <v>0.0888019192035685</v>
+        <v>0.2170069821020046</v>
       </c>
       <c r="K2">
-        <v>0.8207202251250294</v>
+        <v>0.4209538336900209</v>
       </c>
       <c r="L2">
-        <v>0.1820356802226328</v>
+        <v>0.347835227355958</v>
       </c>
       <c r="M2">
-        <v>0.2014197621864398</v>
+        <v>0.2295446117592661</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7628672363422595</v>
+        <v>0.6340892226893118</v>
       </c>
       <c r="C3">
-        <v>0.09060062314632233</v>
+        <v>0.05237827286197927</v>
       </c>
       <c r="D3">
-        <v>0.03613650606138918</v>
+        <v>0.08143863797669582</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.370554053004838</v>
+        <v>2.63504037662328</v>
       </c>
       <c r="G3">
-        <v>1.100062012115927</v>
+        <v>1.920970459983408</v>
       </c>
       <c r="H3">
-        <v>0.7892817057920922</v>
+        <v>1.667346029514547</v>
       </c>
       <c r="I3">
-        <v>0.8818078308453963</v>
+        <v>1.729665702874065</v>
       </c>
       <c r="J3">
-        <v>0.09021565217682515</v>
+        <v>0.2180063437241273</v>
       </c>
       <c r="K3">
-        <v>0.711913901733908</v>
+        <v>0.3918683684832729</v>
       </c>
       <c r="L3">
-        <v>0.1693364828308006</v>
+        <v>0.3462438254031426</v>
       </c>
       <c r="M3">
-        <v>0.1782401290290068</v>
+        <v>0.2244553347820073</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6941266499173651</v>
+        <v>0.6171293087827507</v>
       </c>
       <c r="C4">
-        <v>0.08481979595858746</v>
+        <v>0.05042173746649325</v>
       </c>
       <c r="D4">
-        <v>0.03377973157017777</v>
+        <v>0.08103920037361689</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.354291079421557</v>
+        <v>2.639128511197484</v>
       </c>
       <c r="G4">
-        <v>1.086387841868287</v>
+        <v>1.923611485147148</v>
       </c>
       <c r="H4">
-        <v>0.7878560830112065</v>
+        <v>1.671755179638438</v>
       </c>
       <c r="I4">
-        <v>0.8810022432956615</v>
+        <v>1.734466698649129</v>
       </c>
       <c r="J4">
-        <v>0.09114595047739549</v>
+        <v>0.2186626385924466</v>
       </c>
       <c r="K4">
-        <v>0.6454408271161469</v>
+        <v>0.3741839674349592</v>
       </c>
       <c r="L4">
-        <v>0.1617171705785196</v>
+        <v>0.345395422015649</v>
       </c>
       <c r="M4">
-        <v>0.1641523720288305</v>
+        <v>0.2214325508735335</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6662118550587763</v>
+        <v>0.6102939948056871</v>
       </c>
       <c r="C5">
-        <v>0.08246324512769121</v>
+        <v>0.04961846869080944</v>
       </c>
       <c r="D5">
-        <v>0.03282437026336282</v>
+        <v>0.08088283942574037</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.348124610542854</v>
+        <v>2.64105248117815</v>
       </c>
       <c r="G5">
-        <v>1.081226227408962</v>
+        <v>1.924896380033658</v>
       </c>
       <c r="H5">
-        <v>0.7875143967696516</v>
+        <v>1.673692522534523</v>
       </c>
       <c r="I5">
-        <v>0.8809590224903161</v>
+        <v>1.736579448249032</v>
       </c>
       <c r="J5">
-        <v>0.09154052803539159</v>
+        <v>0.2189408365562091</v>
       </c>
       <c r="K5">
-        <v>0.6184224968501582</v>
+        <v>0.3670215991003829</v>
       </c>
       <c r="L5">
-        <v>0.1586547040380353</v>
+        <v>0.345082157816563</v>
       </c>
       <c r="M5">
-        <v>0.1584446518564278</v>
+        <v>0.2202265238073942</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6615821176838779</v>
+        <v>0.6091636004759664</v>
       </c>
       <c r="C6">
-        <v>0.08207185001405293</v>
+        <v>0.04948472593314079</v>
       </c>
       <c r="D6">
-        <v>0.03266602803199703</v>
+        <v>0.08085726429104767</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.347127954967881</v>
+        <v>2.641387545868589</v>
       </c>
       <c r="G6">
-        <v>1.080393414953164</v>
+        <v>1.925122340285583</v>
       </c>
       <c r="H6">
-        <v>0.787471871745467</v>
+        <v>1.674022711794564</v>
       </c>
       <c r="I6">
-        <v>0.8809687665507369</v>
+        <v>1.736939712425425</v>
       </c>
       <c r="J6">
-        <v>0.09160697673314999</v>
+        <v>0.218987681114049</v>
       </c>
       <c r="K6">
-        <v>0.6139399537129577</v>
+        <v>0.3658349718185718</v>
       </c>
       <c r="L6">
-        <v>0.1581486835314507</v>
+        <v>0.3450321043667159</v>
       </c>
       <c r="M6">
-        <v>0.1574988012546363</v>
+        <v>0.2200278246358209</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6937498043913592</v>
+        <v>0.6170368170054701</v>
       </c>
       <c r="C7">
-        <v>0.08478801992327334</v>
+        <v>0.0504109284683949</v>
       </c>
       <c r="D7">
-        <v>0.03376682726004532</v>
+        <v>0.08103706561664836</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.354206075425452</v>
+        <v>2.639153413495286</v>
       </c>
       <c r="G7">
-        <v>1.086316591926817</v>
+        <v>1.923627968757742</v>
       </c>
       <c r="H7">
-        <v>0.7878505170045003</v>
+        <v>1.671780737932892</v>
       </c>
       <c r="I7">
-        <v>0.8810005196524813</v>
+        <v>1.734494558912004</v>
       </c>
       <c r="J7">
-        <v>0.09115120947088329</v>
+        <v>0.2186663469047296</v>
       </c>
       <c r="K7">
-        <v>0.6450761831523124</v>
+        <v>0.3740871939051971</v>
       </c>
       <c r="L7">
-        <v>0.1616757001014619</v>
+        <v>0.3453910656357095</v>
       </c>
       <c r="M7">
-        <v>0.1640752655906006</v>
+        <v>0.2214161814210982</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8365929916363086</v>
+        <v>0.652445366365356</v>
       </c>
       <c r="C8">
-        <v>0.09677072875958004</v>
+        <v>0.0544457231430755</v>
       </c>
       <c r="D8">
-        <v>0.03866962658332795</v>
+        <v>0.08188668728032411</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.389537966121381</v>
+        <v>2.631559255818189</v>
       </c>
       <c r="G8">
-        <v>1.116110790644683</v>
+        <v>1.918865266040243</v>
       </c>
       <c r="H8">
-        <v>0.7916445891056583</v>
+        <v>1.663121164910351</v>
       </c>
       <c r="I8">
-        <v>0.8836712379855101</v>
+        <v>1.725076561219176</v>
       </c>
       <c r="J8">
-        <v>0.08927633963747361</v>
+        <v>0.2173427149450067</v>
       </c>
       <c r="K8">
-        <v>0.7831256103332862</v>
+        <v>0.4108892213088779</v>
       </c>
       <c r="L8">
-        <v>0.177618612513335</v>
+        <v>0.3472598530923605</v>
       </c>
       <c r="M8">
-        <v>0.1933954088859977</v>
+        <v>0.2277687177128271</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.120928004315289</v>
+        <v>0.7242455262577892</v>
       </c>
       <c r="C9">
-        <v>0.120364294981556</v>
+        <v>0.06217095319045995</v>
       </c>
       <c r="D9">
-        <v>0.04847177387912893</v>
+        <v>0.08375237481870812</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.474917282852203</v>
+        <v>2.624792621829314</v>
       </c>
       <c r="G9">
-        <v>1.189010448953624</v>
+        <v>1.916105793324377</v>
       </c>
       <c r="H9">
-        <v>0.8073098062557875</v>
+        <v>1.650565035623941</v>
       </c>
       <c r="I9">
-        <v>0.8987372165385494</v>
+        <v>1.71153222742727</v>
       </c>
       <c r="J9">
-        <v>0.08610238043958063</v>
+        <v>0.2150848663182021</v>
       </c>
       <c r="K9">
-        <v>1.057184882576479</v>
+        <v>0.4844279644937615</v>
       </c>
       <c r="L9">
-        <v>0.2104073965669286</v>
+        <v>0.3519420855267725</v>
       </c>
       <c r="M9">
-        <v>0.2521967296773724</v>
+        <v>0.2410313727644393</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.333452580386677</v>
+        <v>0.7784206034687315</v>
       </c>
       <c r="C10">
-        <v>0.1378684594889421</v>
+        <v>0.06773433901160786</v>
       </c>
       <c r="D10">
-        <v>0.05581487134638508</v>
+        <v>0.08524289510792471</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.548852085755868</v>
+        <v>2.624765843096256</v>
       </c>
       <c r="G10">
-        <v>1.252753121565547</v>
+        <v>1.918090310880288</v>
       </c>
       <c r="H10">
-        <v>0.8244401321826587</v>
+        <v>1.644030745806702</v>
       </c>
       <c r="I10">
-        <v>0.9165452431464303</v>
+        <v>1.704578536124608</v>
       </c>
       <c r="J10">
-        <v>0.0840895994689248</v>
+        <v>0.2136307379488382</v>
       </c>
       <c r="K10">
-        <v>1.26162100244548</v>
+        <v>0.5392818892232754</v>
       </c>
       <c r="L10">
-        <v>0.2355951828680958</v>
+        <v>0.3559980529421409</v>
       </c>
       <c r="M10">
-        <v>0.2964304308939703</v>
+        <v>0.2512617993573087</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.43117584714733</v>
+        <v>0.8033720087977372</v>
       </c>
       <c r="C11">
-        <v>0.145895671040762</v>
+        <v>0.07024125577858342</v>
       </c>
       <c r="D11">
-        <v>0.05919272328485192</v>
+        <v>0.08594660500303775</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.585255266090627</v>
+        <v>2.625825682248319</v>
       </c>
       <c r="G11">
-        <v>1.284289250249884</v>
+        <v>1.919864545214054</v>
       </c>
       <c r="H11">
-        <v>0.8335997162903084</v>
+        <v>1.641640972551556</v>
       </c>
       <c r="I11">
-        <v>0.926289271556108</v>
+        <v>1.702065061927925</v>
       </c>
       <c r="J11">
-        <v>0.08324626262647072</v>
+        <v>0.2130134123209526</v>
       </c>
       <c r="K11">
-        <v>1.355546616852166</v>
+        <v>0.5644137278142978</v>
       </c>
       <c r="L11">
-        <v>0.2473325436814804</v>
+        <v>0.3579760826053615</v>
       </c>
       <c r="M11">
-        <v>0.3168347276054035</v>
+        <v>0.2560206027545249</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.468353846420854</v>
+        <v>0.8128641745951199</v>
       </c>
       <c r="C12">
-        <v>0.1489470938059583</v>
+        <v>0.07118714341790167</v>
       </c>
       <c r="D12">
-        <v>0.06047779265921349</v>
+        <v>0.08621673656116968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.599468659936861</v>
+        <v>2.626380987108334</v>
       </c>
       <c r="G12">
-        <v>1.2966257840026</v>
+        <v>1.920661697587576</v>
       </c>
       <c r="H12">
-        <v>0.8372779758299771</v>
+        <v>1.640819694206485</v>
       </c>
       <c r="I12">
-        <v>0.9302315599124711</v>
+        <v>1.701206628215203</v>
       </c>
       <c r="J12">
-        <v>0.08293758466271051</v>
+        <v>0.2127859784340629</v>
       </c>
       <c r="K12">
-        <v>1.391269516085941</v>
+        <v>0.5739558907647506</v>
       </c>
       <c r="L12">
-        <v>0.2518209316991573</v>
+        <v>0.3587441415987627</v>
       </c>
       <c r="M12">
-        <v>0.3246069460039678</v>
+        <v>0.2578376254156041</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.460338864800434</v>
+        <v>0.8108179355458276</v>
       </c>
       <c r="C13">
-        <v>0.148289354521367</v>
+        <v>0.07098358188225973</v>
       </c>
       <c r="D13">
-        <v>0.06020075582238604</v>
+        <v>0.0861583970911397</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.596387999958935</v>
+        <v>2.626254547553941</v>
       </c>
       <c r="G13">
-        <v>1.293950853938597</v>
+        <v>1.920484444768576</v>
       </c>
       <c r="H13">
-        <v>0.8364762485363002</v>
+        <v>1.640992851473371</v>
       </c>
       <c r="I13">
-        <v>0.9293710195161538</v>
+        <v>1.701387356060827</v>
       </c>
       <c r="J13">
-        <v>0.08300358450556011</v>
+        <v>0.2128346789552751</v>
       </c>
       <c r="K13">
-        <v>1.383568672927908</v>
+        <v>0.5718996970325918</v>
       </c>
       <c r="L13">
-        <v>0.250852274023714</v>
+        <v>0.3585778818637095</v>
       </c>
       <c r="M13">
-        <v>0.3229309502287236</v>
+        <v>0.2574456333446804</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.434230917286754</v>
+        <v>0.8041520639521309</v>
       </c>
       <c r="C14">
-        <v>0.1461464644923325</v>
+        <v>0.07031914316280563</v>
       </c>
       <c r="D14">
-        <v>0.05929832405540481</v>
+        <v>0.08596875591997843</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.586415846695687</v>
+        <v>2.625868282868424</v>
       </c>
       <c r="G14">
-        <v>1.285296101940986</v>
+        <v>1.91992761661345</v>
       </c>
       <c r="H14">
-        <v>0.8338980466300683</v>
+        <v>1.641571729138008</v>
       </c>
       <c r="I14">
-        <v>0.9266084497170084</v>
+        <v>1.701992567337669</v>
       </c>
       <c r="J14">
-        <v>0.08322065187314109</v>
+        <v>0.2129945743526171</v>
       </c>
       <c r="K14">
-        <v>1.358482315994422</v>
+        <v>0.5651982628533858</v>
       </c>
       <c r="L14">
-        <v>0.2477009089325151</v>
+        <v>0.3580388905983796</v>
       </c>
       <c r="M14">
-        <v>0.317473209814537</v>
+        <v>0.2561697910358163</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.418262171675821</v>
+        <v>0.8000746890451182</v>
       </c>
       <c r="C15">
-        <v>0.1448354805125689</v>
+        <v>0.06991170918296064</v>
       </c>
       <c r="D15">
-        <v>0.05874635103005232</v>
+        <v>0.08585306966865147</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.58036432193623</v>
+        <v>2.625651730025837</v>
       </c>
       <c r="G15">
-        <v>1.280047100210567</v>
+        <v>1.919602858708771</v>
       </c>
       <c r="H15">
-        <v>0.8323465441453806</v>
+        <v>1.641937202204772</v>
       </c>
       <c r="I15">
-        <v>0.9249496717773127</v>
+        <v>1.702375433295181</v>
       </c>
       <c r="J15">
-        <v>0.08335501083368868</v>
+        <v>0.213093339266301</v>
       </c>
       <c r="K15">
-        <v>1.343137108554856</v>
+        <v>0.5610967217523637</v>
       </c>
       <c r="L15">
-        <v>0.2457764080350273</v>
+        <v>0.3577112172815191</v>
       </c>
       <c r="M15">
-        <v>0.3141362730907815</v>
+        <v>0.2553902463314941</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.327089007084822</v>
+        <v>0.7767961013422564</v>
       </c>
       <c r="C16">
-        <v>0.1373453619787028</v>
+        <v>0.06757002602084583</v>
       </c>
       <c r="D16">
-        <v>0.055594921528062</v>
+        <v>0.08519741914143708</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.546531301244144</v>
+        <v>2.624718135790616</v>
       </c>
       <c r="G16">
-        <v>1.250745714767149</v>
+        <v>1.917991894287042</v>
       </c>
       <c r="H16">
-        <v>0.8238701395689105</v>
+        <v>1.644198638768344</v>
       </c>
       <c r="I16">
-        <v>0.9159428644003569</v>
+        <v>1.704755866661984</v>
       </c>
       <c r="J16">
-        <v>0.0841461916424624</v>
+        <v>0.2136719688891446</v>
       </c>
       <c r="K16">
-        <v>1.255503234637445</v>
+        <v>0.5376430233288261</v>
       </c>
       <c r="L16">
-        <v>0.2348340357263652</v>
+        <v>0.3558714511331544</v>
       </c>
       <c r="M16">
-        <v>0.2951030569150817</v>
+        <v>0.250952901416241</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.271439990136486</v>
+        <v>0.7625936729053535</v>
       </c>
       <c r="C17">
-        <v>0.1327685889096983</v>
+        <v>0.06612736532670738</v>
       </c>
       <c r="D17">
-        <v>0.0536715994312118</v>
+        <v>0.08480174454405898</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.526505898265526</v>
+        <v>2.624419841970052</v>
       </c>
       <c r="G17">
-        <v>1.233440803796668</v>
+        <v>1.917226803882926</v>
       </c>
       <c r="H17">
-        <v>0.8190292861550432</v>
+        <v>1.645735119722588</v>
       </c>
       <c r="I17">
-        <v>0.9108494251055248</v>
+        <v>1.706382559777069</v>
       </c>
       <c r="J17">
-        <v>0.08465026325490221</v>
+        <v>0.2140382389936857</v>
       </c>
       <c r="K17">
-        <v>1.201995171071076</v>
+        <v>0.5233003832999543</v>
       </c>
       <c r="L17">
-        <v>0.22819521866397</v>
+        <v>0.3547767974477125</v>
       </c>
       <c r="M17">
-        <v>0.2835024877189909</v>
+        <v>0.2482575225308281</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.239529065072958</v>
+        <v>0.7544537287092226</v>
       </c>
       <c r="C18">
-        <v>0.1301420624538281</v>
+        <v>0.06529533538611076</v>
       </c>
       <c r="D18">
-        <v>0.05256884288502306</v>
+        <v>0.0845765809652903</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.515246602269684</v>
+        <v>2.624349186166228</v>
       </c>
       <c r="G18">
-        <v>1.2237245982069</v>
+        <v>1.916868772393727</v>
       </c>
       <c r="H18">
-        <v>0.8163727689120748</v>
+        <v>1.64667371701816</v>
       </c>
       <c r="I18">
-        <v>0.9080734282002112</v>
+        <v>1.707379356861985</v>
       </c>
       <c r="J18">
-        <v>0.08494697797702777</v>
+        <v>0.2142530658595501</v>
       </c>
       <c r="K18">
-        <v>1.171304542693605</v>
+        <v>0.5150677017448686</v>
       </c>
       <c r="L18">
-        <v>0.2244028095101669</v>
+        <v>0.3541597011730744</v>
       </c>
       <c r="M18">
-        <v>0.2768563856155453</v>
+        <v>0.2467170957458009</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.228740574812917</v>
+        <v>0.7517026658850341</v>
       </c>
       <c r="C19">
-        <v>0.1292537107889444</v>
+        <v>0.06501323769398937</v>
       </c>
       <c r="D19">
-        <v>0.05219605093143542</v>
+        <v>0.08450076091927627</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.511477967866739</v>
+        <v>2.624342601316627</v>
       </c>
       <c r="G19">
-        <v>1.22047472628735</v>
+        <v>1.916761638363795</v>
       </c>
       <c r="H19">
-        <v>0.8154948853812982</v>
+        <v>1.647000934723181</v>
       </c>
       <c r="I19">
-        <v>0.907159434255604</v>
+        <v>1.707727362892449</v>
       </c>
       <c r="J19">
-        <v>0.08504859777571738</v>
+        <v>0.2143265172007265</v>
       </c>
       <c r="K19">
-        <v>1.160927314439334</v>
+        <v>0.5122831589221448</v>
       </c>
       <c r="L19">
-        <v>0.2231231376845528</v>
+        <v>0.3539529161550092</v>
       </c>
       <c r="M19">
-        <v>0.2746104905942914</v>
+        <v>0.2461972349879389</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.27735373789406</v>
+        <v>0.7641025566351516</v>
       </c>
       <c r="C20">
-        <v>0.1332551654378307</v>
+        <v>0.06628117178989612</v>
       </c>
       <c r="D20">
-        <v>0.05387597545831113</v>
+        <v>0.08484361480968516</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.528610643210556</v>
+        <v>2.624441152904538</v>
       </c>
       <c r="G20">
-        <v>1.235258194585995</v>
+        <v>1.917299759639619</v>
       </c>
       <c r="H20">
-        <v>0.8195312829473806</v>
+        <v>1.645565882347128</v>
       </c>
       <c r="I20">
-        <v>0.9113756187211024</v>
+        <v>1.706203065586166</v>
       </c>
       <c r="J20">
-        <v>0.08459589967188386</v>
+        <v>0.2139988187023718</v>
       </c>
       <c r="K20">
-        <v>1.207682162085547</v>
+        <v>0.524825443248119</v>
       </c>
       <c r="L20">
-        <v>0.2288992098727363</v>
+        <v>0.3548920301684859</v>
       </c>
       <c r="M20">
-        <v>0.2847346376797262</v>
+        <v>0.2485434281566938</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.44189459298741</v>
+        <v>0.8061088125927256</v>
       </c>
       <c r="C21">
-        <v>0.1467755455894633</v>
+        <v>0.07051439786775404</v>
       </c>
       <c r="D21">
-        <v>0.05956322390906621</v>
+        <v>0.08602435932435526</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.589333035303184</v>
+        <v>2.625977561055919</v>
       </c>
       <c r="G21">
-        <v>1.287827260869975</v>
+        <v>1.920087770471142</v>
       </c>
       <c r="H21">
-        <v>0.8346495251032309</v>
+        <v>1.641399428686825</v>
       </c>
       <c r="I21">
-        <v>0.9274128973045634</v>
+        <v>1.701812268829492</v>
       </c>
       <c r="J21">
-        <v>0.08315660185978757</v>
+        <v>0.2129474374318185</v>
       </c>
       <c r="K21">
-        <v>1.365846387496589</v>
+        <v>0.5671659534861249</v>
       </c>
       <c r="L21">
-        <v>0.2486253255818127</v>
+        <v>0.3581966899067055</v>
       </c>
       <c r="M21">
-        <v>0.3190750025349161</v>
+        <v>0.2565441316149517</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.550447490191061</v>
+        <v>0.833816282360516</v>
       </c>
       <c r="C22">
-        <v>0.1556813235161343</v>
+        <v>0.07326108277943888</v>
       </c>
       <c r="D22">
-        <v>0.0633151486986776</v>
+        <v>0.08681731238102941</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.631530717477048</v>
+        <v>2.627879041623373</v>
       </c>
       <c r="G22">
-        <v>1.324498863555263</v>
+        <v>1.922640160160213</v>
       </c>
       <c r="H22">
-        <v>0.8457594763428347</v>
+        <v>1.639164090339065</v>
       </c>
       <c r="I22">
-        <v>0.9393740055242787</v>
+        <v>1.699486793965804</v>
       </c>
       <c r="J22">
-        <v>0.08227830727776819</v>
+        <v>0.2122972102337854</v>
       </c>
       <c r="K22">
-        <v>1.470132641844799</v>
+        <v>0.5949851028891828</v>
       </c>
       <c r="L22">
-        <v>0.2617740645625446</v>
+        <v>0.36046730710585</v>
       </c>
       <c r="M22">
-        <v>0.341786536001969</v>
+        <v>0.2618602372969576</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.492410048902315</v>
+        <v>0.8190052189299877</v>
       </c>
       <c r="C23">
-        <v>0.1509209340742075</v>
+        <v>0.07179694997942931</v>
       </c>
       <c r="D23">
-        <v>0.06130927572555578</v>
+        <v>0.08639216507533121</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.608768636004683</v>
+        <v>2.626782140345426</v>
       </c>
       <c r="G23">
-        <v>1.304704439771598</v>
+        <v>1.921211091742961</v>
       </c>
       <c r="H23">
-        <v>0.8397127790547358</v>
+        <v>1.640312547788497</v>
       </c>
       <c r="I23">
-        <v>0.932849058321402</v>
+        <v>1.700678177334169</v>
       </c>
       <c r="J23">
-        <v>0.0827412646168284</v>
+        <v>0.2126408768970123</v>
       </c>
       <c r="K23">
-        <v>1.414381459805583</v>
+        <v>0.5801241605290102</v>
       </c>
       <c r="L23">
-        <v>0.2547316169000453</v>
+        <v>0.3592453265302709</v>
       </c>
       <c r="M23">
-        <v>0.329638682044731</v>
+        <v>0.2590149944912952</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.274679877411415</v>
+        <v>0.7634203117014522</v>
       </c>
       <c r="C24">
-        <v>0.1330351696639838</v>
+        <v>0.06621164406658409</v>
       </c>
       <c r="D24">
-        <v>0.05378356779489479</v>
+        <v>0.08482467804953586</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.527658300431938</v>
+        <v>2.624431204109186</v>
       </c>
       <c r="G24">
-        <v>1.234435829847399</v>
+        <v>1.917266521442173</v>
       </c>
       <c r="H24">
-        <v>0.8193039369934354</v>
+        <v>1.645642222436948</v>
       </c>
       <c r="I24">
-        <v>0.9111372534480253</v>
+        <v>1.706284023051573</v>
       </c>
       <c r="J24">
-        <v>0.08462045592303724</v>
+        <v>0.2140166273663677</v>
       </c>
       <c r="K24">
-        <v>1.205110851235276</v>
+        <v>0.5241359228336364</v>
       </c>
       <c r="L24">
-        <v>0.228580859912924</v>
+        <v>0.354839895339083</v>
       </c>
       <c r="M24">
-        <v>0.284177510730224</v>
+        <v>0.2484141416121091</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.043452066454961</v>
+        <v>0.7045704283137013</v>
       </c>
       <c r="C25">
-        <v>0.1139603715818964</v>
+        <v>0.06010092149210777</v>
       </c>
       <c r="D25">
-        <v>0.04579726897713954</v>
+        <v>0.0832264846306856</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.449958736720532</v>
+        <v>2.625754203362249</v>
       </c>
       <c r="G25">
-        <v>1.167605031988302</v>
+        <v>1.916147804645021</v>
       </c>
       <c r="H25">
-        <v>0.8021313450814631</v>
+        <v>1.653488779369155</v>
       </c>
       <c r="I25">
-        <v>0.8935352399643506</v>
+        <v>1.714669630212271</v>
       </c>
       <c r="J25">
-        <v>0.08690594938986962</v>
+        <v>0.2156596372810426</v>
       </c>
       <c r="K25">
-        <v>0.9825830796096398</v>
+        <v>0.4643881736899687</v>
       </c>
       <c r="L25">
-        <v>0.2013572380507043</v>
+        <v>0.3505669377306759</v>
       </c>
       <c r="M25">
-        <v>0.2361262749258017</v>
+        <v>0.2373577333117822</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6621999664170914</v>
+        <v>0.8755454908157958</v>
       </c>
       <c r="C2">
-        <v>0.0555262346195704</v>
+        <v>0.1000200569536176</v>
       </c>
       <c r="D2">
-        <v>0.0821304690908633</v>
+        <v>0.04000981687023142</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.630051839096126</v>
+        <v>1.400151783894358</v>
       </c>
       <c r="G2">
-        <v>1.918020106059501</v>
+        <v>1.125115793391615</v>
       </c>
       <c r="H2">
-        <v>1.661074597085232</v>
+        <v>0.7932081722144062</v>
       </c>
       <c r="I2">
-        <v>1.722858182555314</v>
+        <v>0.885034076129223</v>
       </c>
       <c r="J2">
-        <v>0.2170069821020046</v>
+        <v>0.08880191920357561</v>
       </c>
       <c r="K2">
-        <v>0.4209538336900209</v>
+        <v>0.8207202251250578</v>
       </c>
       <c r="L2">
-        <v>0.347835227355958</v>
+        <v>0.1820356802226755</v>
       </c>
       <c r="M2">
-        <v>0.2295446117592661</v>
+        <v>0.2014197621864362</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6340892226893118</v>
+        <v>0.7628672363421742</v>
       </c>
       <c r="C3">
-        <v>0.05237827286197927</v>
+        <v>0.09060062314608075</v>
       </c>
       <c r="D3">
-        <v>0.08143863797669582</v>
+        <v>0.03613650606132524</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.63504037662328</v>
+        <v>1.37055405300481</v>
       </c>
       <c r="G3">
-        <v>1.920970459983408</v>
+        <v>1.100062012115927</v>
       </c>
       <c r="H3">
-        <v>1.667346029514547</v>
+        <v>0.7892817057920496</v>
       </c>
       <c r="I3">
-        <v>1.729665702874065</v>
+        <v>0.8818078308453678</v>
       </c>
       <c r="J3">
-        <v>0.2180063437241273</v>
+        <v>0.09021565217671501</v>
       </c>
       <c r="K3">
-        <v>0.3918683684832729</v>
+        <v>0.7119139017338796</v>
       </c>
       <c r="L3">
-        <v>0.3462438254031426</v>
+        <v>0.1693364828309427</v>
       </c>
       <c r="M3">
-        <v>0.2244553347820073</v>
+        <v>0.1782401290290103</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6171293087827507</v>
+        <v>0.6941266499173651</v>
       </c>
       <c r="C4">
-        <v>0.05042173746649325</v>
+        <v>0.08481979595871536</v>
       </c>
       <c r="D4">
-        <v>0.08103920037361689</v>
+        <v>0.03377973157010672</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.639128511197484</v>
+        <v>1.35429107942155</v>
       </c>
       <c r="G4">
-        <v>1.923611485147148</v>
+        <v>1.086387841868401</v>
       </c>
       <c r="H4">
-        <v>1.671755179638438</v>
+        <v>0.7878560830111923</v>
       </c>
       <c r="I4">
-        <v>1.734466698649129</v>
+        <v>0.8810022432956899</v>
       </c>
       <c r="J4">
-        <v>0.2186626385924466</v>
+        <v>0.09114595047725693</v>
       </c>
       <c r="K4">
-        <v>0.3741839674349592</v>
+        <v>0.6454408271162322</v>
       </c>
       <c r="L4">
-        <v>0.345395422015649</v>
+        <v>0.1617171705784557</v>
       </c>
       <c r="M4">
-        <v>0.2214325508735335</v>
+        <v>0.1641523720288269</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6102939948056871</v>
+        <v>0.6662118550588048</v>
       </c>
       <c r="C5">
-        <v>0.04961846869080944</v>
+        <v>0.08246324512782621</v>
       </c>
       <c r="D5">
-        <v>0.08088283942574037</v>
+        <v>0.03282437026342677</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.64105248117815</v>
+        <v>1.34812461054284</v>
       </c>
       <c r="G5">
-        <v>1.924896380033658</v>
+        <v>1.081226227409061</v>
       </c>
       <c r="H5">
-        <v>1.673692522534523</v>
+        <v>0.7875143967696374</v>
       </c>
       <c r="I5">
-        <v>1.736579448249032</v>
+        <v>0.8809590224902948</v>
       </c>
       <c r="J5">
-        <v>0.2189408365562091</v>
+        <v>0.09154052803529389</v>
       </c>
       <c r="K5">
-        <v>0.3670215991003829</v>
+        <v>0.6184224968501155</v>
       </c>
       <c r="L5">
-        <v>0.345082157816563</v>
+        <v>0.1586547040379855</v>
       </c>
       <c r="M5">
-        <v>0.2202265238073942</v>
+        <v>0.1584446518564349</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6091636004759664</v>
+        <v>0.661582117683821</v>
       </c>
       <c r="C6">
-        <v>0.04948472593314079</v>
+        <v>0.08207185001415951</v>
       </c>
       <c r="D6">
-        <v>0.08085726429104767</v>
+        <v>0.03266602803201124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.641387545868589</v>
+        <v>1.347127954967895</v>
       </c>
       <c r="G6">
-        <v>1.925122340285583</v>
+        <v>1.080393414953164</v>
       </c>
       <c r="H6">
-        <v>1.674022711794564</v>
+        <v>0.787471871745467</v>
       </c>
       <c r="I6">
-        <v>1.736939712425425</v>
+        <v>0.880968766550744</v>
       </c>
       <c r="J6">
-        <v>0.218987681114049</v>
+        <v>0.0916069767331642</v>
       </c>
       <c r="K6">
-        <v>0.3658349718185718</v>
+        <v>0.6139399537129009</v>
       </c>
       <c r="L6">
-        <v>0.3450321043667159</v>
+        <v>0.1581486835314223</v>
       </c>
       <c r="M6">
-        <v>0.2200278246358209</v>
+        <v>0.1574988012546221</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6170368170054701</v>
+        <v>0.6937498043913308</v>
       </c>
       <c r="C7">
-        <v>0.0504109284683949</v>
+        <v>0.08478801992290386</v>
       </c>
       <c r="D7">
-        <v>0.08103706561664836</v>
+        <v>0.0337668272601519</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.639153413495286</v>
+        <v>1.354206075425466</v>
       </c>
       <c r="G7">
-        <v>1.923627968757742</v>
+        <v>1.086316591926803</v>
       </c>
       <c r="H7">
-        <v>1.671780737932892</v>
+        <v>0.7878505170046282</v>
       </c>
       <c r="I7">
-        <v>1.734494558912004</v>
+        <v>0.8810005196525026</v>
       </c>
       <c r="J7">
-        <v>0.2186663469047296</v>
+        <v>0.09115120947099165</v>
       </c>
       <c r="K7">
-        <v>0.3740871939051971</v>
+        <v>0.6450761831523408</v>
       </c>
       <c r="L7">
-        <v>0.3453910656357095</v>
+        <v>0.1616757001013482</v>
       </c>
       <c r="M7">
-        <v>0.2214161814210982</v>
+        <v>0.1640752655906041</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.652445366365356</v>
+        <v>0.8365929916365076</v>
       </c>
       <c r="C8">
-        <v>0.0544457231430755</v>
+        <v>0.09677072875981452</v>
       </c>
       <c r="D8">
-        <v>0.08188668728032411</v>
+        <v>0.03866962658332795</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.631559255818189</v>
+        <v>1.389537966121367</v>
       </c>
       <c r="G8">
-        <v>1.918865266040243</v>
+        <v>1.116110790644669</v>
       </c>
       <c r="H8">
-        <v>1.663121164910351</v>
+        <v>0.7916445891056441</v>
       </c>
       <c r="I8">
-        <v>1.725076561219176</v>
+        <v>0.8836712379854816</v>
       </c>
       <c r="J8">
-        <v>0.2173427149450067</v>
+        <v>0.08927633963750559</v>
       </c>
       <c r="K8">
-        <v>0.4108892213088779</v>
+        <v>0.7831256103332862</v>
       </c>
       <c r="L8">
-        <v>0.3472598530923605</v>
+        <v>0.1776186125132782</v>
       </c>
       <c r="M8">
-        <v>0.2277687177128271</v>
+        <v>0.1933954088859942</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7242455262577892</v>
+        <v>1.12092800431526</v>
       </c>
       <c r="C9">
-        <v>0.06217095319045995</v>
+        <v>0.1203642949816555</v>
       </c>
       <c r="D9">
-        <v>0.08375237481870812</v>
+        <v>0.04847177387923551</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.624792621829314</v>
+        <v>1.474917282852218</v>
       </c>
       <c r="G9">
-        <v>1.916105793324377</v>
+        <v>1.189010448953624</v>
       </c>
       <c r="H9">
-        <v>1.650565035623941</v>
+        <v>0.8073098062556738</v>
       </c>
       <c r="I9">
-        <v>1.71153222742727</v>
+        <v>0.8987372165385779</v>
       </c>
       <c r="J9">
-        <v>0.2150848663182021</v>
+        <v>0.08610238043960372</v>
       </c>
       <c r="K9">
-        <v>0.4844279644937615</v>
+        <v>1.057184882576394</v>
       </c>
       <c r="L9">
-        <v>0.3519420855267725</v>
+        <v>0.2104073965669215</v>
       </c>
       <c r="M9">
-        <v>0.2410313727644393</v>
+        <v>0.2521967296773688</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7784206034687315</v>
+        <v>1.333452580386677</v>
       </c>
       <c r="C10">
-        <v>0.06773433901160786</v>
+        <v>0.1378684594889279</v>
       </c>
       <c r="D10">
-        <v>0.08524289510792471</v>
+        <v>0.05581487134618612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.624765843096256</v>
+        <v>1.548852085755897</v>
       </c>
       <c r="G10">
-        <v>1.918090310880288</v>
+        <v>1.252753121565533</v>
       </c>
       <c r="H10">
-        <v>1.644030745806702</v>
+        <v>0.8244401321826444</v>
       </c>
       <c r="I10">
-        <v>1.704578536124608</v>
+        <v>0.9165452431464587</v>
       </c>
       <c r="J10">
-        <v>0.2136307379488382</v>
+        <v>0.08408959946887684</v>
       </c>
       <c r="K10">
-        <v>0.5392818892232754</v>
+        <v>1.261621002445395</v>
       </c>
       <c r="L10">
-        <v>0.3559980529421409</v>
+        <v>0.235595182868181</v>
       </c>
       <c r="M10">
-        <v>0.2512617993573087</v>
+        <v>0.2964304308939845</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8033720087977372</v>
+        <v>1.43117584714733</v>
       </c>
       <c r="C11">
-        <v>0.07024125577858342</v>
+        <v>0.145895671040762</v>
       </c>
       <c r="D11">
-        <v>0.08594660500303775</v>
+        <v>0.05919272328476666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.625825682248319</v>
+        <v>1.585255266090627</v>
       </c>
       <c r="G11">
-        <v>1.919864545214054</v>
+        <v>1.284289250249955</v>
       </c>
       <c r="H11">
-        <v>1.641640972551556</v>
+        <v>0.8335997162903084</v>
       </c>
       <c r="I11">
-        <v>1.702065061927925</v>
+        <v>0.9262892715561222</v>
       </c>
       <c r="J11">
-        <v>0.2130134123209526</v>
+        <v>0.08324626262646184</v>
       </c>
       <c r="K11">
-        <v>0.5644137278142978</v>
+        <v>1.355546616852195</v>
       </c>
       <c r="L11">
-        <v>0.3579760826053615</v>
+        <v>0.2473325436814946</v>
       </c>
       <c r="M11">
-        <v>0.2560206027545249</v>
+        <v>0.3168347276054106</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8128641745951199</v>
+        <v>1.468353846420939</v>
       </c>
       <c r="C12">
-        <v>0.07118714341790167</v>
+        <v>0.1489470938059441</v>
       </c>
       <c r="D12">
-        <v>0.08621673656116968</v>
+        <v>0.06047779265908559</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.626380987108334</v>
+        <v>1.599468659936846</v>
       </c>
       <c r="G12">
-        <v>1.920661697587576</v>
+        <v>1.296625784002657</v>
       </c>
       <c r="H12">
-        <v>1.640819694206485</v>
+        <v>0.8372779758299487</v>
       </c>
       <c r="I12">
-        <v>1.701206628215203</v>
+        <v>0.9302315599124782</v>
       </c>
       <c r="J12">
-        <v>0.2127859784340629</v>
+        <v>0.08293758466274781</v>
       </c>
       <c r="K12">
-        <v>0.5739558907647506</v>
+        <v>1.391269516086084</v>
       </c>
       <c r="L12">
-        <v>0.3587441415987627</v>
+        <v>0.2518209316991999</v>
       </c>
       <c r="M12">
-        <v>0.2578376254156041</v>
+        <v>0.3246069460039678</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8108179355458276</v>
+        <v>1.460338864800548</v>
       </c>
       <c r="C13">
-        <v>0.07098358188225973</v>
+        <v>0.148289354521367</v>
       </c>
       <c r="D13">
-        <v>0.0861583970911397</v>
+        <v>0.06020075582238604</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.626254547553941</v>
+        <v>1.596387999958949</v>
       </c>
       <c r="G13">
-        <v>1.920484444768576</v>
+        <v>1.293950853938597</v>
       </c>
       <c r="H13">
-        <v>1.640992851473371</v>
+        <v>0.8364762485363002</v>
       </c>
       <c r="I13">
-        <v>1.701387356060827</v>
+        <v>0.9293710195161466</v>
       </c>
       <c r="J13">
-        <v>0.2128346789552751</v>
+        <v>0.08300358450559919</v>
       </c>
       <c r="K13">
-        <v>0.5718996970325918</v>
+        <v>1.383568672927851</v>
       </c>
       <c r="L13">
-        <v>0.3585778818637095</v>
+        <v>0.2508522740236572</v>
       </c>
       <c r="M13">
-        <v>0.2574456333446804</v>
+        <v>0.3229309502287521</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8041520639521309</v>
+        <v>1.434230917286698</v>
       </c>
       <c r="C14">
-        <v>0.07031914316280563</v>
+        <v>0.1461464644923183</v>
       </c>
       <c r="D14">
-        <v>0.08596875591997843</v>
+        <v>0.05929832405511348</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.625868282868424</v>
+        <v>1.586415846695701</v>
       </c>
       <c r="G14">
-        <v>1.91992761661345</v>
+        <v>1.285296101940958</v>
       </c>
       <c r="H14">
-        <v>1.641571729138008</v>
+        <v>0.8338980466300683</v>
       </c>
       <c r="I14">
-        <v>1.701992567337669</v>
+        <v>0.9266084497170084</v>
       </c>
       <c r="J14">
-        <v>0.2129945743526171</v>
+        <v>0.0832206518731855</v>
       </c>
       <c r="K14">
-        <v>0.5651982628533858</v>
+        <v>1.358482315994365</v>
       </c>
       <c r="L14">
-        <v>0.3580388905983796</v>
+        <v>0.2477009089325151</v>
       </c>
       <c r="M14">
-        <v>0.2561697910358163</v>
+        <v>0.3174732098145583</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8000746890451182</v>
+        <v>1.418262171675877</v>
       </c>
       <c r="C15">
-        <v>0.06991170918296064</v>
+        <v>0.1448354805125689</v>
       </c>
       <c r="D15">
-        <v>0.08585306966865147</v>
+        <v>0.05874635103005943</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.625651730025837</v>
+        <v>1.580364321936216</v>
       </c>
       <c r="G15">
-        <v>1.919602858708771</v>
+        <v>1.280047100210538</v>
       </c>
       <c r="H15">
-        <v>1.641937202204772</v>
+        <v>0.8323465441454942</v>
       </c>
       <c r="I15">
-        <v>1.702375433295181</v>
+        <v>0.9249496717772772</v>
       </c>
       <c r="J15">
-        <v>0.213093339266301</v>
+        <v>0.08335501083366026</v>
       </c>
       <c r="K15">
-        <v>0.5610967217523637</v>
+        <v>1.343137108554885</v>
       </c>
       <c r="L15">
-        <v>0.3577112172815191</v>
+        <v>0.2457764080350699</v>
       </c>
       <c r="M15">
-        <v>0.2553902463314941</v>
+        <v>0.3141362730907957</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7767961013422564</v>
+        <v>1.327089007084936</v>
       </c>
       <c r="C16">
-        <v>0.06757002602084583</v>
+        <v>0.1373453619787171</v>
       </c>
       <c r="D16">
-        <v>0.08519741914143708</v>
+        <v>0.05559492152799805</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.624718135790616</v>
+        <v>1.546531301244102</v>
       </c>
       <c r="G16">
-        <v>1.917991894287042</v>
+        <v>1.250745714767106</v>
       </c>
       <c r="H16">
-        <v>1.644198638768344</v>
+        <v>0.8238701395687684</v>
       </c>
       <c r="I16">
-        <v>1.704755866661984</v>
+        <v>0.9159428644003498</v>
       </c>
       <c r="J16">
-        <v>0.2136719688891446</v>
+        <v>0.0841461916424322</v>
       </c>
       <c r="K16">
-        <v>0.5376430233288261</v>
+        <v>1.255503234637558</v>
       </c>
       <c r="L16">
-        <v>0.3558714511331544</v>
+        <v>0.2348340357263368</v>
       </c>
       <c r="M16">
-        <v>0.250952901416241</v>
+        <v>0.2951030569150745</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7625936729053535</v>
+        <v>1.271439990136571</v>
       </c>
       <c r="C17">
-        <v>0.06612736532670738</v>
+        <v>0.1327685889096841</v>
       </c>
       <c r="D17">
-        <v>0.08480174454405898</v>
+        <v>0.05367159943131838</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.624419841970052</v>
+        <v>1.52650589826554</v>
       </c>
       <c r="G17">
-        <v>1.917226803882926</v>
+        <v>1.233440803796711</v>
       </c>
       <c r="H17">
-        <v>1.645735119722588</v>
+        <v>0.8190292861550716</v>
       </c>
       <c r="I17">
-        <v>1.706382559777069</v>
+        <v>0.910849425105539</v>
       </c>
       <c r="J17">
-        <v>0.2140382389936857</v>
+        <v>0.08465026325493596</v>
       </c>
       <c r="K17">
-        <v>0.5233003832999543</v>
+        <v>1.201995171071047</v>
       </c>
       <c r="L17">
-        <v>0.3547767974477125</v>
+        <v>0.2281952186638989</v>
       </c>
       <c r="M17">
-        <v>0.2482575225308281</v>
+        <v>0.2835024877189767</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7544537287092226</v>
+        <v>1.239529065072986</v>
       </c>
       <c r="C18">
-        <v>0.06529533538611076</v>
+        <v>0.1301420624538281</v>
       </c>
       <c r="D18">
-        <v>0.0845765809652903</v>
+        <v>0.05256884288489516</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.624349186166228</v>
+        <v>1.515246602269698</v>
       </c>
       <c r="G18">
-        <v>1.916868772393727</v>
+        <v>1.223724598206971</v>
       </c>
       <c r="H18">
-        <v>1.64667371701816</v>
+        <v>0.8163727689121885</v>
       </c>
       <c r="I18">
-        <v>1.707379356861985</v>
+        <v>0.9080734282002041</v>
       </c>
       <c r="J18">
-        <v>0.2142530658595501</v>
+        <v>0.08494697797709705</v>
       </c>
       <c r="K18">
-        <v>0.5150677017448686</v>
+        <v>1.171304542693633</v>
       </c>
       <c r="L18">
-        <v>0.3541597011730744</v>
+        <v>0.2244028095102379</v>
       </c>
       <c r="M18">
-        <v>0.2467170957458009</v>
+        <v>0.2768563856155595</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7517026658850341</v>
+        <v>1.228740574812861</v>
       </c>
       <c r="C19">
-        <v>0.06501323769398937</v>
+        <v>0.1292537107886744</v>
       </c>
       <c r="D19">
-        <v>0.08450076091927627</v>
+        <v>0.05219605093132174</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.624342601316627</v>
+        <v>1.511477967866711</v>
       </c>
       <c r="G19">
-        <v>1.916761638363795</v>
+        <v>1.220474726287364</v>
       </c>
       <c r="H19">
-        <v>1.647000934723181</v>
+        <v>0.815494885381284</v>
       </c>
       <c r="I19">
-        <v>1.707727362892449</v>
+        <v>0.9071594342555969</v>
       </c>
       <c r="J19">
-        <v>0.2143265172007265</v>
+        <v>0.08504859777574225</v>
       </c>
       <c r="K19">
-        <v>0.5122831589221448</v>
+        <v>1.160927314439249</v>
       </c>
       <c r="L19">
-        <v>0.3539529161550092</v>
+        <v>0.2231231376845955</v>
       </c>
       <c r="M19">
-        <v>0.2461972349879389</v>
+        <v>0.274610490594263</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7641025566351516</v>
+        <v>1.277353737894117</v>
       </c>
       <c r="C20">
-        <v>0.06628117178989612</v>
+        <v>0.1332551654378307</v>
       </c>
       <c r="D20">
-        <v>0.08484361480968516</v>
+        <v>0.0538759754581406</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.624441152904538</v>
+        <v>1.52861064321057</v>
       </c>
       <c r="G20">
-        <v>1.917299759639619</v>
+        <v>1.235258194585953</v>
       </c>
       <c r="H20">
-        <v>1.645565882347128</v>
+        <v>0.8195312829473806</v>
       </c>
       <c r="I20">
-        <v>1.706203065586166</v>
+        <v>0.9113756187211308</v>
       </c>
       <c r="J20">
-        <v>0.2139988187023718</v>
+        <v>0.08459589967191938</v>
       </c>
       <c r="K20">
-        <v>0.524825443248119</v>
+        <v>1.207682162085632</v>
       </c>
       <c r="L20">
-        <v>0.3548920301684859</v>
+        <v>0.2288992098726794</v>
       </c>
       <c r="M20">
-        <v>0.2485434281566938</v>
+        <v>0.2847346376797191</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8061088125927256</v>
+        <v>1.44189459298741</v>
       </c>
       <c r="C21">
-        <v>0.07051439786775404</v>
+        <v>0.1467755455898612</v>
       </c>
       <c r="D21">
-        <v>0.08602435932435526</v>
+        <v>0.059563223909187</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.625977561055919</v>
+        <v>1.589333035303198</v>
       </c>
       <c r="G21">
-        <v>1.920087770471142</v>
+        <v>1.287827260869989</v>
       </c>
       <c r="H21">
-        <v>1.641399428686825</v>
+        <v>0.8346495251032167</v>
       </c>
       <c r="I21">
-        <v>1.701812268829492</v>
+        <v>0.9274128973045563</v>
       </c>
       <c r="J21">
-        <v>0.2129474374318185</v>
+        <v>0.08315660185986218</v>
       </c>
       <c r="K21">
-        <v>0.5671659534861249</v>
+        <v>1.365846387496617</v>
       </c>
       <c r="L21">
-        <v>0.3581966899067055</v>
+        <v>0.2486253255819122</v>
       </c>
       <c r="M21">
-        <v>0.2565441316149517</v>
+        <v>0.3190750025349018</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.833816282360516</v>
+        <v>1.550447490190976</v>
       </c>
       <c r="C22">
-        <v>0.07326108277943888</v>
+        <v>0.1556813235161201</v>
       </c>
       <c r="D22">
-        <v>0.08681731238102941</v>
+        <v>0.06331514869881971</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.627879041623373</v>
+        <v>1.63153071747702</v>
       </c>
       <c r="G22">
-        <v>1.922640160160213</v>
+        <v>1.324498863555164</v>
       </c>
       <c r="H22">
-        <v>1.639164090339065</v>
+        <v>0.8457594763429199</v>
       </c>
       <c r="I22">
-        <v>1.699486793965804</v>
+        <v>0.9393740055242574</v>
       </c>
       <c r="J22">
-        <v>0.2122972102337854</v>
+        <v>0.08227830727779306</v>
       </c>
       <c r="K22">
-        <v>0.5949851028891828</v>
+        <v>1.470132641844828</v>
       </c>
       <c r="L22">
-        <v>0.36046730710585</v>
+        <v>0.2617740645625304</v>
       </c>
       <c r="M22">
-        <v>0.2618602372969576</v>
+        <v>0.341786536001969</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8190052189299877</v>
+        <v>1.492410048902428</v>
       </c>
       <c r="C23">
-        <v>0.07179694997942931</v>
+        <v>0.1509209340743212</v>
       </c>
       <c r="D23">
-        <v>0.08639216507533121</v>
+        <v>0.06130927572554157</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.626782140345426</v>
+        <v>1.608768636004683</v>
       </c>
       <c r="G23">
-        <v>1.921211091742961</v>
+        <v>1.304704439771655</v>
       </c>
       <c r="H23">
-        <v>1.640312547788497</v>
+        <v>0.8397127790546079</v>
       </c>
       <c r="I23">
-        <v>1.700678177334169</v>
+        <v>0.9328490583214091</v>
       </c>
       <c r="J23">
-        <v>0.2126408768970123</v>
+        <v>0.08274126461674669</v>
       </c>
       <c r="K23">
-        <v>0.5801241605290102</v>
+        <v>1.414381459805611</v>
       </c>
       <c r="L23">
-        <v>0.3592453265302709</v>
+        <v>0.2547316169000311</v>
       </c>
       <c r="M23">
-        <v>0.2590149944912952</v>
+        <v>0.3296386820447168</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7634203117014522</v>
+        <v>1.274679877411415</v>
       </c>
       <c r="C24">
-        <v>0.06621164406658409</v>
+        <v>0.1330351696639838</v>
       </c>
       <c r="D24">
-        <v>0.08482467804953586</v>
+        <v>0.05378356779500848</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.624431204109186</v>
+        <v>1.527658300431952</v>
       </c>
       <c r="G24">
-        <v>1.917266521442173</v>
+        <v>1.234435829847428</v>
       </c>
       <c r="H24">
-        <v>1.645642222436948</v>
+        <v>0.8193039369934354</v>
       </c>
       <c r="I24">
-        <v>1.706284023051573</v>
+        <v>0.9111372534480324</v>
       </c>
       <c r="J24">
-        <v>0.2140166273663677</v>
+        <v>0.08462045592303014</v>
       </c>
       <c r="K24">
-        <v>0.5241359228336364</v>
+        <v>1.205110851235162</v>
       </c>
       <c r="L24">
-        <v>0.354839895339083</v>
+        <v>0.2285808599127961</v>
       </c>
       <c r="M24">
-        <v>0.2484141416121091</v>
+        <v>0.2841775107302098</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7045704283137013</v>
+        <v>1.043452066455103</v>
       </c>
       <c r="C25">
-        <v>0.06010092149210777</v>
+        <v>0.1139603715817401</v>
       </c>
       <c r="D25">
-        <v>0.0832264846306856</v>
+        <v>0.04579726897707559</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.625754203362249</v>
+        <v>1.449958736720532</v>
       </c>
       <c r="G25">
-        <v>1.916147804645021</v>
+        <v>1.167605031988288</v>
       </c>
       <c r="H25">
-        <v>1.653488779369155</v>
+        <v>0.8021313450814631</v>
       </c>
       <c r="I25">
-        <v>1.714669630212271</v>
+        <v>0.8935352399643435</v>
       </c>
       <c r="J25">
-        <v>0.2156596372810426</v>
+        <v>0.08690594938979679</v>
       </c>
       <c r="K25">
-        <v>0.4643881736899687</v>
+        <v>0.9825830796096113</v>
       </c>
       <c r="L25">
-        <v>0.3505669377306759</v>
+        <v>0.2013572380507043</v>
       </c>
       <c r="M25">
-        <v>0.2373577333117822</v>
+        <v>0.2361262749257946</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8755454908157958</v>
+        <v>3.431803583083308</v>
       </c>
       <c r="C2">
-        <v>0.1000200569536176</v>
+        <v>0.6522165477342412</v>
       </c>
       <c r="D2">
-        <v>0.04000981687023142</v>
+        <v>0.07509058235944366</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.400151783894358</v>
+        <v>0.3132750405596525</v>
       </c>
       <c r="G2">
-        <v>1.125115793391615</v>
+        <v>0.2085700117788249</v>
       </c>
       <c r="H2">
-        <v>0.7932081722144062</v>
+        <v>5.89540179340986E-07</v>
       </c>
       <c r="I2">
-        <v>0.885034076129223</v>
+        <v>0.0009476791258751227</v>
       </c>
       <c r="J2">
-        <v>0.08880191920357561</v>
+        <v>0.1982929441681449</v>
       </c>
       <c r="K2">
-        <v>0.8207202251250578</v>
+        <v>0.1887115755373792</v>
       </c>
       <c r="L2">
-        <v>0.1820356802226755</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2014197621864362</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.455825913328411</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8072353157837142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7628672363421742</v>
+        <v>2.992529131135882</v>
       </c>
       <c r="C3">
-        <v>0.09060062314608075</v>
+        <v>0.6002900010934411</v>
       </c>
       <c r="D3">
-        <v>0.03613650606132524</v>
+        <v>0.06616302890150649</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.37055405300481</v>
+        <v>0.2937383390715098</v>
       </c>
       <c r="G3">
-        <v>1.100062012115927</v>
+        <v>0.1974921736566273</v>
       </c>
       <c r="H3">
-        <v>0.7892817057920496</v>
+        <v>0.0001649629152573606</v>
       </c>
       <c r="I3">
-        <v>0.8818078308453678</v>
+        <v>0.0005225422640031674</v>
       </c>
       <c r="J3">
-        <v>0.09021565217671501</v>
+        <v>0.1977863667803916</v>
       </c>
       <c r="K3">
-        <v>0.7119139017338796</v>
+        <v>0.1975593633788542</v>
       </c>
       <c r="L3">
-        <v>0.1693364828309427</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1782401290290103</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4040894540870852</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7823949652783995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6941266499173651</v>
+        <v>2.722228176481735</v>
       </c>
       <c r="C4">
-        <v>0.08481979595871536</v>
+        <v>0.5685716579980635</v>
       </c>
       <c r="D4">
-        <v>0.03377973157010672</v>
+        <v>0.060691919044217</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.35429107942155</v>
+        <v>0.282204925920567</v>
       </c>
       <c r="G4">
-        <v>1.086387841868401</v>
+        <v>0.1910783782134686</v>
       </c>
       <c r="H4">
-        <v>0.7878560830111923</v>
+        <v>0.0004212666895642148</v>
       </c>
       <c r="I4">
-        <v>0.8810022432956899</v>
+        <v>0.0004319783528918819</v>
       </c>
       <c r="J4">
-        <v>0.09114595047725693</v>
+        <v>0.1977517153499875</v>
       </c>
       <c r="K4">
-        <v>0.6454408271162322</v>
+        <v>0.2033402745891433</v>
       </c>
       <c r="L4">
-        <v>0.1617171705784557</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1641523720288269</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3723042931332117</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.7685364152376053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6662118550588048</v>
+        <v>2.61190118157856</v>
       </c>
       <c r="C5">
-        <v>0.08246324512782621</v>
+        <v>0.5564894178484963</v>
       </c>
       <c r="D5">
-        <v>0.03282437026342677</v>
+        <v>0.05853072395912307</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.34812461054284</v>
+        <v>0.2772549090446859</v>
       </c>
       <c r="G5">
-        <v>1.081226227409061</v>
+        <v>0.1882170150296147</v>
       </c>
       <c r="H5">
-        <v>0.7875143967696374</v>
+        <v>0.0005635186549115545</v>
       </c>
       <c r="I5">
-        <v>0.8809590224902948</v>
+        <v>0.0005002388748982511</v>
       </c>
       <c r="J5">
-        <v>0.09154052803529389</v>
+        <v>0.1976243692020176</v>
       </c>
       <c r="K5">
-        <v>0.6184224968501155</v>
+        <v>0.2055575143156254</v>
       </c>
       <c r="L5">
-        <v>0.1586547040379855</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1584446518564349</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3593314849986768</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.7621246241230182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.661582117683821</v>
+        <v>2.59354851140273</v>
       </c>
       <c r="C6">
-        <v>0.08207185001415951</v>
+        <v>0.5554746766190135</v>
       </c>
       <c r="D6">
-        <v>0.03266602803201124</v>
+        <v>0.05825317908356453</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.347127954967895</v>
+        <v>0.275999691070048</v>
       </c>
       <c r="G6">
-        <v>1.080393414953164</v>
+        <v>0.1873326477914148</v>
       </c>
       <c r="H6">
-        <v>0.787471871745467</v>
+        <v>0.0005902779935068603</v>
       </c>
       <c r="I6">
-        <v>0.880968766550744</v>
+        <v>0.0006005045401229481</v>
       </c>
       <c r="J6">
-        <v>0.0916069767331642</v>
+        <v>0.1973870685475489</v>
       </c>
       <c r="K6">
-        <v>0.6139399537129009</v>
+        <v>0.2056590591092355</v>
       </c>
       <c r="L6">
-        <v>0.1581486835314223</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1574988012546221</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3571618299154977</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7597394553543211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6937498043913308</v>
+        <v>2.720676855718011</v>
       </c>
       <c r="C7">
-        <v>0.08478801992290386</v>
+        <v>0.5711213313423968</v>
       </c>
       <c r="D7">
-        <v>0.0337668272601519</v>
+        <v>0.0608852059976499</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.354206075425466</v>
+        <v>0.2809365962169537</v>
       </c>
       <c r="G7">
-        <v>1.086316591926803</v>
+        <v>0.1899068407003952</v>
       </c>
       <c r="H7">
-        <v>0.7878505170046282</v>
+        <v>0.0004251584331683711</v>
       </c>
       <c r="I7">
-        <v>0.8810005196525026</v>
+        <v>0.0006540490663509146</v>
       </c>
       <c r="J7">
-        <v>0.09115120947099165</v>
+        <v>0.1971494994544329</v>
       </c>
       <c r="K7">
-        <v>0.6450761831523408</v>
+        <v>0.2026306587480402</v>
       </c>
       <c r="L7">
-        <v>0.1616757001013482</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1640752655906041</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3720890589042227</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7647902818963104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8365929916365076</v>
+        <v>3.280366592027633</v>
       </c>
       <c r="C8">
-        <v>0.09677072875981452</v>
+        <v>0.6379193161816943</v>
       </c>
       <c r="D8">
-        <v>0.03866962658332795</v>
+        <v>0.07230724113990306</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.389537966121367</v>
+        <v>0.3048502937908495</v>
       </c>
       <c r="G8">
-        <v>1.116110790644669</v>
+        <v>0.2031693540371364</v>
       </c>
       <c r="H8">
-        <v>0.7916445891056441</v>
+        <v>2.439999455983166E-05</v>
       </c>
       <c r="I8">
-        <v>0.8836712379854816</v>
+        <v>0.001028741746264217</v>
       </c>
       <c r="J8">
-        <v>0.08927633963750559</v>
+        <v>0.1972702841250182</v>
       </c>
       <c r="K8">
-        <v>0.7831256103332862</v>
+        <v>0.1907263065886919</v>
       </c>
       <c r="L8">
-        <v>0.1776186125132782</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1933954088859942</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4379382629599746</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7935442653897979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.12092800431526</v>
+        <v>4.374016463845521</v>
       </c>
       <c r="C9">
-        <v>0.1203642949816555</v>
+        <v>0.7654774109288383</v>
       </c>
       <c r="D9">
-        <v>0.04847177387923551</v>
+        <v>0.09441267995124747</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.474917282852218</v>
+        <v>0.3578757600539006</v>
       </c>
       <c r="G9">
-        <v>1.189010448953624</v>
+        <v>0.2345627293909232</v>
       </c>
       <c r="H9">
-        <v>0.8073098062556738</v>
+        <v>0.0005673248972941636</v>
       </c>
       <c r="I9">
-        <v>0.8987372165385779</v>
+        <v>0.002900872879313177</v>
       </c>
       <c r="J9">
-        <v>0.08610238043960372</v>
+        <v>0.2008880813749343</v>
       </c>
       <c r="K9">
-        <v>1.057184882576394</v>
+        <v>0.1715864244399103</v>
       </c>
       <c r="L9">
-        <v>0.2104073965669215</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2521967296773688</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5671388968572302</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8683662019506784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.333452580386677</v>
+        <v>5.175546981048967</v>
       </c>
       <c r="C10">
-        <v>0.1378684594889279</v>
+        <v>0.8760456331725095</v>
       </c>
       <c r="D10">
-        <v>0.05581487134618612</v>
+        <v>0.1120091623413799</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.548852085755897</v>
+        <v>0.3933362343704943</v>
       </c>
       <c r="G10">
-        <v>1.252753121565533</v>
+        <v>0.2540969739372585</v>
       </c>
       <c r="H10">
-        <v>0.8244401321826444</v>
+        <v>0.001981887117001424</v>
       </c>
       <c r="I10">
-        <v>0.9165452431464587</v>
+        <v>0.005402273480373587</v>
       </c>
       <c r="J10">
-        <v>0.08408959946887684</v>
+        <v>0.2020384618518278</v>
       </c>
       <c r="K10">
-        <v>1.261621002445395</v>
+        <v>0.1559139069208442</v>
       </c>
       <c r="L10">
-        <v>0.235595182868181</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2964304308939845</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6317523555083966</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9126588958075672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.43117584714733</v>
+        <v>5.535941478057282</v>
       </c>
       <c r="C11">
-        <v>0.145895671040762</v>
+        <v>1.066708540656208</v>
       </c>
       <c r="D11">
-        <v>0.05919272328476666</v>
+        <v>0.1308111201001196</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.585255266090627</v>
+        <v>0.3590307170940861</v>
       </c>
       <c r="G11">
-        <v>1.284289250249955</v>
+        <v>0.216533230129393</v>
       </c>
       <c r="H11">
-        <v>0.8335997162903084</v>
+        <v>0.02040498426337223</v>
       </c>
       <c r="I11">
-        <v>0.9262892715561222</v>
+        <v>0.006722559554442675</v>
       </c>
       <c r="J11">
-        <v>0.08324626262646184</v>
+        <v>0.1784816772775528</v>
       </c>
       <c r="K11">
-        <v>1.355546616852195</v>
+        <v>0.1243595665297939</v>
       </c>
       <c r="L11">
-        <v>0.2473325436814946</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3168347276054106</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4242857096419499</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7839022608803106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.468353846420939</v>
+        <v>5.671174111427661</v>
       </c>
       <c r="C12">
-        <v>0.1489470938059441</v>
+        <v>1.214631413328988</v>
       </c>
       <c r="D12">
-        <v>0.06047779265908559</v>
+        <v>0.1432833783784275</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.599468659936846</v>
+        <v>0.325301518532001</v>
       </c>
       <c r="G12">
-        <v>1.296625784002657</v>
+        <v>0.1844145429671187</v>
       </c>
       <c r="H12">
-        <v>0.8372779758299487</v>
+        <v>0.05885261376590734</v>
       </c>
       <c r="I12">
-        <v>0.9302315599124782</v>
+        <v>0.006929034882327656</v>
       </c>
       <c r="J12">
-        <v>0.08293758466274781</v>
+        <v>0.1600505311725371</v>
       </c>
       <c r="K12">
-        <v>1.391269516086084</v>
+        <v>0.1071609436956109</v>
       </c>
       <c r="L12">
-        <v>0.2518209316991999</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3246069460039678</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2734337903037556</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6772962179491344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.460338864800548</v>
+        <v>5.63949796757106</v>
       </c>
       <c r="C13">
-        <v>0.148289354521367</v>
+        <v>1.34077922915759</v>
       </c>
       <c r="D13">
-        <v>0.06020075582238604</v>
+        <v>0.1518290342201993</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.596387999958949</v>
+        <v>0.288008207001333</v>
       </c>
       <c r="G13">
-        <v>1.293950853938597</v>
+        <v>0.1526839536892268</v>
       </c>
       <c r="H13">
-        <v>0.8364762485363002</v>
+        <v>0.1142776307431888</v>
       </c>
       <c r="I13">
-        <v>0.9293710195161466</v>
+        <v>0.006573932195667709</v>
       </c>
       <c r="J13">
-        <v>0.08300358450559919</v>
+        <v>0.1434387322328448</v>
       </c>
       <c r="K13">
-        <v>1.383568672927851</v>
+        <v>0.09851190968788792</v>
       </c>
       <c r="L13">
-        <v>0.2508522740236572</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3229309502287521</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1576796752130676</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5752298603254644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.434230917286698</v>
+        <v>5.54165932423183</v>
       </c>
       <c r="C14">
-        <v>0.1461464644923183</v>
+        <v>1.421148112451874</v>
       </c>
       <c r="D14">
-        <v>0.05929832405511348</v>
+        <v>0.1561253602111776</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.586415846695701</v>
+        <v>0.2603234896048647</v>
       </c>
       <c r="G14">
-        <v>1.285296101940958</v>
+        <v>0.1308264346897658</v>
       </c>
       <c r="H14">
-        <v>0.8338980466300683</v>
+        <v>0.163373326558613</v>
       </c>
       <c r="I14">
-        <v>0.9266084497170084</v>
+        <v>0.006161213774669605</v>
       </c>
       <c r="J14">
-        <v>0.0832206518731855</v>
+        <v>0.1326780250959843</v>
       </c>
       <c r="K14">
-        <v>1.358482315994365</v>
+        <v>0.09687448490840178</v>
       </c>
       <c r="L14">
-        <v>0.2477009089325151</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3174732098145583</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09812534331339862</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5063075534167609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.418262171675877</v>
+        <v>5.482143029268286</v>
       </c>
       <c r="C15">
-        <v>0.1448354805125689</v>
+        <v>1.43544750286901</v>
       </c>
       <c r="D15">
-        <v>0.05874635103005943</v>
+        <v>0.1563337758213947</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.580364321936216</v>
+        <v>0.2523671027424754</v>
       </c>
       <c r="G15">
-        <v>1.280047100210538</v>
+        <v>0.125046520350331</v>
       </c>
       <c r="H15">
-        <v>0.8323465441454942</v>
+        <v>0.1757751834995389</v>
       </c>
       <c r="I15">
-        <v>0.9249496717772772</v>
+        <v>0.006043160994265051</v>
       </c>
       <c r="J15">
-        <v>0.08335501083366026</v>
+        <v>0.1301835641254314</v>
       </c>
       <c r="K15">
-        <v>1.343137108554885</v>
+        <v>0.09758004970206668</v>
       </c>
       <c r="L15">
-        <v>0.2457764080350699</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3141362730907957</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08630838158919474</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4887974072590282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.327089007084936</v>
+        <v>5.142436652226536</v>
       </c>
       <c r="C16">
-        <v>0.1373453619787171</v>
+        <v>1.359145426797852</v>
       </c>
       <c r="D16">
-        <v>0.05559492152799805</v>
+        <v>0.1468221250312354</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.546531301244102</v>
+        <v>0.2438960323276831</v>
       </c>
       <c r="G16">
-        <v>1.250745714767106</v>
+        <v>0.1223339519601723</v>
       </c>
       <c r="H16">
-        <v>0.8238701395687684</v>
+        <v>0.1625052678404302</v>
       </c>
       <c r="I16">
-        <v>0.9159428644003498</v>
+        <v>0.005057125948604302</v>
       </c>
       <c r="J16">
-        <v>0.0841461916424322</v>
+        <v>0.1325020735307447</v>
       </c>
       <c r="K16">
-        <v>1.255503234637558</v>
+        <v>0.1048899031088404</v>
       </c>
       <c r="L16">
-        <v>0.2348340357263368</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2951030569150745</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08550533431498764</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4877016154550518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.271439990136571</v>
+        <v>4.934523723818529</v>
       </c>
       <c r="C17">
-        <v>0.1327685889096841</v>
+        <v>1.257774700798961</v>
       </c>
       <c r="D17">
-        <v>0.05367159943131838</v>
+        <v>0.1372709650716644</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.52650589826554</v>
+        <v>0.2520497179615973</v>
       </c>
       <c r="G17">
-        <v>1.233440803796711</v>
+        <v>0.1317093545760244</v>
       </c>
       <c r="H17">
-        <v>0.8190292861550716</v>
+        <v>0.1244587759702114</v>
       </c>
       <c r="I17">
-        <v>0.910849425105539</v>
+        <v>0.004571321042259768</v>
       </c>
       <c r="J17">
-        <v>0.08465026325493596</v>
+        <v>0.1399699341749923</v>
       </c>
       <c r="K17">
-        <v>1.201995171071047</v>
+        <v>0.1110882111039633</v>
       </c>
       <c r="L17">
-        <v>0.2281952186638989</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2835024877189767</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1125491357443167</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5230890430854487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.239529065072986</v>
+        <v>4.815943503029018</v>
       </c>
       <c r="C18">
-        <v>0.1301420624538281</v>
+        <v>1.126356654455321</v>
       </c>
       <c r="D18">
-        <v>0.05256884288489516</v>
+        <v>0.1266329616513246</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.515246602269698</v>
+        <v>0.2767651111926455</v>
       </c>
       <c r="G18">
-        <v>1.223724598206971</v>
+        <v>0.1542847688326034</v>
       </c>
       <c r="H18">
-        <v>0.8163727689121885</v>
+        <v>0.07160112846771227</v>
       </c>
       <c r="I18">
-        <v>0.9080734282002041</v>
+        <v>0.004163579858499133</v>
       </c>
       <c r="J18">
-        <v>0.08494697797709705</v>
+        <v>0.1535184121078572</v>
       </c>
       <c r="K18">
-        <v>1.171304542693633</v>
+        <v>0.1196337490667108</v>
       </c>
       <c r="L18">
-        <v>0.2244028095102379</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2768563856155595</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1855171178577066</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5992461117980383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.228740574812861</v>
+        <v>4.77749050283137</v>
       </c>
       <c r="C19">
-        <v>0.1292537107886744</v>
+        <v>0.9961604366254164</v>
       </c>
       <c r="D19">
-        <v>0.05219605093132174</v>
+        <v>0.116744607515102</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.511477967866711</v>
+        <v>0.3121933519066573</v>
       </c>
       <c r="G19">
-        <v>1.220474726287364</v>
+        <v>0.1860249084316408</v>
       </c>
       <c r="H19">
-        <v>0.815494885381284</v>
+        <v>0.02658808212764541</v>
       </c>
       <c r="I19">
-        <v>0.9071594342555969</v>
+        <v>0.004357210508666221</v>
       </c>
       <c r="J19">
-        <v>0.08504859777574225</v>
+        <v>0.170869688803684</v>
       </c>
       <c r="K19">
-        <v>1.160927314439249</v>
+        <v>0.1327008907300824</v>
       </c>
       <c r="L19">
-        <v>0.2231231376845955</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.274610490594263</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3188416427267242</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7028450911323887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.277353737894117</v>
+        <v>4.964900312934788</v>
       </c>
       <c r="C20">
-        <v>0.1332551654378307</v>
+        <v>0.856459443768216</v>
       </c>
       <c r="D20">
-        <v>0.0538759754581406</v>
+        <v>0.1081456636559182</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.52861064321057</v>
+        <v>0.379856643863576</v>
       </c>
       <c r="G20">
-        <v>1.235258194585953</v>
+        <v>0.2450772052626604</v>
       </c>
       <c r="H20">
-        <v>0.8195312829473806</v>
+        <v>0.001514954898060417</v>
       </c>
       <c r="I20">
-        <v>0.9113756187211308</v>
+        <v>0.00536291921582599</v>
       </c>
       <c r="J20">
-        <v>0.08459589967191938</v>
+        <v>0.1996847105562836</v>
       </c>
       <c r="K20">
-        <v>1.207682162085632</v>
+        <v>0.1576234185959997</v>
       </c>
       <c r="L20">
-        <v>0.2288992098726794</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2847346376797191</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6133871638711241</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8884872325283766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.44189459298741</v>
+        <v>5.580526137526078</v>
       </c>
       <c r="C21">
-        <v>0.1467755455898612</v>
+        <v>0.9179371765418409</v>
       </c>
       <c r="D21">
-        <v>0.059563223909187</v>
+        <v>0.119789030919506</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.589333035303198</v>
+        <v>0.4178753208216008</v>
       </c>
       <c r="G21">
-        <v>1.287827260869989</v>
+        <v>0.2701211674345245</v>
       </c>
       <c r="H21">
-        <v>0.8346495251032167</v>
+        <v>0.002851471653395166</v>
       </c>
       <c r="I21">
-        <v>0.9274128973045563</v>
+        <v>0.007596817634185626</v>
       </c>
       <c r="J21">
-        <v>0.08315660185986218</v>
+        <v>0.2058666649617464</v>
       </c>
       <c r="K21">
-        <v>1.365846387496617</v>
+        <v>0.1517859330026941</v>
       </c>
       <c r="L21">
-        <v>0.2486253255819122</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3190750025349018</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7103232762814002</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9548766203031676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.550447490190976</v>
+        <v>5.982818981310061</v>
       </c>
       <c r="C22">
-        <v>0.1556813235161201</v>
+        <v>0.9619690169137129</v>
       </c>
       <c r="D22">
-        <v>0.06331514869881971</v>
+        <v>0.1277094552754789</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.63153071747702</v>
+        <v>0.4420018046972487</v>
       </c>
       <c r="G22">
-        <v>1.324498863555164</v>
+        <v>0.2857656846609871</v>
       </c>
       <c r="H22">
-        <v>0.8457594763429199</v>
+        <v>0.003970481951867832</v>
       </c>
       <c r="I22">
-        <v>0.9393740055242574</v>
+        <v>0.009002317413110639</v>
       </c>
       <c r="J22">
-        <v>0.08227830727779306</v>
+        <v>0.2095823544160567</v>
       </c>
       <c r="K22">
-        <v>1.470132641844828</v>
+        <v>0.1476430427167159</v>
       </c>
       <c r="L22">
-        <v>0.2617740645625304</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.341786536001969</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7582977970521796</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9960459636337475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.492410048902428</v>
+        <v>5.768186867303484</v>
       </c>
       <c r="C23">
-        <v>0.1509209340743212</v>
+        <v>0.9350387518134085</v>
       </c>
       <c r="D23">
-        <v>0.06130927572554157</v>
+        <v>0.1232059672252603</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.608768636004683</v>
+        <v>0.4304667376456095</v>
       </c>
       <c r="G23">
-        <v>1.304704439771655</v>
+        <v>0.278679774383896</v>
       </c>
       <c r="H23">
-        <v>0.8397127790546079</v>
+        <v>0.003357302243172988</v>
       </c>
       <c r="I23">
-        <v>0.9328490583214091</v>
+        <v>0.007961932457858367</v>
       </c>
       <c r="J23">
-        <v>0.08274126461674669</v>
+        <v>0.2082528864252424</v>
       </c>
       <c r="K23">
-        <v>1.414381459805611</v>
+        <v>0.1506172996307882</v>
       </c>
       <c r="L23">
-        <v>0.2547316169000311</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3296386820447168</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7327208324462617</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9781215868443951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.274679877411415</v>
+        <v>4.95536391069453</v>
       </c>
       <c r="C24">
-        <v>0.1330351696639838</v>
+        <v>0.838979813411953</v>
       </c>
       <c r="D24">
-        <v>0.05378356779500848</v>
+        <v>0.1066397549685831</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.527658300431952</v>
+        <v>0.3859813491450339</v>
       </c>
       <c r="G24">
-        <v>1.234435829847428</v>
+        <v>0.2509903548624024</v>
       </c>
       <c r="H24">
-        <v>0.8193039369934354</v>
+        <v>0.001465130292402472</v>
       </c>
       <c r="I24">
-        <v>0.9111372534480324</v>
+        <v>0.004928631140121986</v>
       </c>
       <c r="J24">
-        <v>0.08462045592303014</v>
+        <v>0.2028653717960154</v>
       </c>
       <c r="K24">
-        <v>1.205110851235162</v>
+        <v>0.1615168112915306</v>
       </c>
       <c r="L24">
-        <v>0.2285808599127961</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2841775107302098</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6360307047816889</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9076778376878849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.043452066455103</v>
+        <v>4.078355625240931</v>
       </c>
       <c r="C25">
-        <v>0.1139603715817401</v>
+        <v>0.7358591295036092</v>
       </c>
       <c r="D25">
-        <v>0.04579726897707559</v>
+        <v>0.0888285061015921</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.449958736720532</v>
+        <v>0.3408932295369667</v>
       </c>
       <c r="G25">
-        <v>1.167605031988288</v>
+        <v>0.2236321625064122</v>
       </c>
       <c r="H25">
-        <v>0.8021313450814631</v>
+        <v>0.0002617186707930541</v>
       </c>
       <c r="I25">
-        <v>0.8935352399643435</v>
+        <v>0.002600385007387018</v>
       </c>
       <c r="J25">
-        <v>0.08690594938979679</v>
+        <v>0.1985761098569725</v>
       </c>
       <c r="K25">
-        <v>0.9825830796096113</v>
+        <v>0.1751531100855299</v>
       </c>
       <c r="L25">
-        <v>0.2013572380507043</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2361262749257946</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5320978094355411</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8401713912061979</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.431803583083308</v>
+        <v>3.43442356383963</v>
       </c>
       <c r="C2">
-        <v>0.6522165477342412</v>
+        <v>0.6560464565224606</v>
       </c>
       <c r="D2">
-        <v>0.07509058235944366</v>
+        <v>0.07688513729653579</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3132750405596525</v>
+        <v>0.304146925488844</v>
       </c>
       <c r="G2">
-        <v>0.2085700117788249</v>
+        <v>0.1839692542119877</v>
       </c>
       <c r="H2">
-        <v>5.89540179340986E-07</v>
+        <v>9.876393705088304E-07</v>
       </c>
       <c r="I2">
-        <v>0.0009476791258751227</v>
+        <v>0.001166004077531646</v>
       </c>
       <c r="J2">
-        <v>0.1982929441681449</v>
+        <v>0.2351676877562738</v>
       </c>
       <c r="K2">
-        <v>0.1887115755373792</v>
+        <v>0.1795812945870967</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1105621009978606</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03591005354010068</v>
       </c>
       <c r="N2">
-        <v>0.455825913328411</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4572746486427519</v>
       </c>
       <c r="Q2">
-        <v>0.8072353157837142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7798472864423474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992529131135882</v>
+        <v>2.995962782099753</v>
       </c>
       <c r="C3">
-        <v>0.6002900010934411</v>
+        <v>0.5958926547952217</v>
       </c>
       <c r="D3">
-        <v>0.06616302890150649</v>
+        <v>0.06731253447913588</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2937383390715098</v>
+        <v>0.286898746290575</v>
       </c>
       <c r="G3">
-        <v>0.1974921736566273</v>
+        <v>0.1745885854368012</v>
       </c>
       <c r="H3">
-        <v>0.0001649629152573606</v>
+        <v>0.0001061162418560802</v>
       </c>
       <c r="I3">
-        <v>0.0005225422640031674</v>
+        <v>0.0007041335562467665</v>
       </c>
       <c r="J3">
-        <v>0.1977863667803916</v>
+        <v>0.2341978289005482</v>
       </c>
       <c r="K3">
-        <v>0.1975593633788542</v>
+        <v>0.188740635504093</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1162695262937152</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03821379218490772</v>
       </c>
       <c r="N3">
-        <v>0.4040894540870852</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4061264599948657</v>
       </c>
       <c r="Q3">
-        <v>0.7823949652783995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7610761513962956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.722228176481735</v>
+        <v>2.72607315709206</v>
       </c>
       <c r="C4">
-        <v>0.5685716579980635</v>
+        <v>0.5593055334244639</v>
       </c>
       <c r="D4">
-        <v>0.060691919044217</v>
+        <v>0.06145879733886517</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.282204925920567</v>
+        <v>0.2766666018057364</v>
       </c>
       <c r="G4">
-        <v>0.1910783782134686</v>
+        <v>0.1691999796563621</v>
       </c>
       <c r="H4">
-        <v>0.0004212666895642148</v>
+        <v>0.0003058400607405254</v>
       </c>
       <c r="I4">
-        <v>0.0004319783528918819</v>
+        <v>0.0005664181411977331</v>
       </c>
       <c r="J4">
-        <v>0.1977517153499875</v>
+        <v>0.233719135980003</v>
       </c>
       <c r="K4">
-        <v>0.2033402745891433</v>
+        <v>0.1946509781491521</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1200116669266578</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04011375995630839</v>
       </c>
       <c r="N4">
-        <v>0.3723042931332117</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3746972207988932</v>
       </c>
       <c r="Q4">
-        <v>0.7685364152376053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7506226319612779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.61190118157856</v>
+        <v>2.615893650157886</v>
       </c>
       <c r="C5">
-        <v>0.5564894178484963</v>
+        <v>0.545285597169368</v>
       </c>
       <c r="D5">
-        <v>0.05853072395912307</v>
+        <v>0.05914396192369509</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2772549090446859</v>
+        <v>0.2722336056150922</v>
       </c>
       <c r="G5">
-        <v>0.1882170150296147</v>
+        <v>0.1667688809829642</v>
       </c>
       <c r="H5">
-        <v>0.0005635186549115545</v>
+        <v>0.0004201235861247543</v>
       </c>
       <c r="I5">
-        <v>0.0005002388748982511</v>
+        <v>0.0006223323921537016</v>
       </c>
       <c r="J5">
-        <v>0.1976243692020176</v>
+        <v>0.2333713538914637</v>
       </c>
       <c r="K5">
-        <v>0.2055575143156254</v>
+        <v>0.1969201609806479</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1214681233785413</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04097796669532938</v>
       </c>
       <c r="N5">
-        <v>0.3593314849986768</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3618684650387678</v>
       </c>
       <c r="Q5">
-        <v>0.7621246241230182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7455608714535629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.59354851140273</v>
+        <v>2.597563563298763</v>
       </c>
       <c r="C6">
-        <v>0.5554746766190135</v>
+        <v>0.5439527594211029</v>
       </c>
       <c r="D6">
-        <v>0.05825317908356453</v>
+        <v>0.05883978186007255</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.275999691070048</v>
+        <v>0.2710775769302671</v>
       </c>
       <c r="G6">
-        <v>0.1873326477914148</v>
+        <v>0.1659769687088684</v>
       </c>
       <c r="H6">
-        <v>0.0005902779935068603</v>
+        <v>0.0004418242512295167</v>
       </c>
       <c r="I6">
-        <v>0.0006005045401229481</v>
+        <v>0.0007371951967432011</v>
       </c>
       <c r="J6">
-        <v>0.1973870685475489</v>
+        <v>0.2330941957974844</v>
       </c>
       <c r="K6">
-        <v>0.2056590591092355</v>
+        <v>0.1970471035979049</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1215581283094682</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04109115501787919</v>
       </c>
       <c r="N6">
-        <v>0.3571618299154977</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3597225384303471</v>
       </c>
       <c r="Q6">
-        <v>0.7597394553543211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7434455198374224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.720676855718011</v>
+        <v>2.724492594756896</v>
       </c>
       <c r="C7">
-        <v>0.5711213313423968</v>
+        <v>0.5614138026548119</v>
       </c>
       <c r="D7">
-        <v>0.0608852059976499</v>
+        <v>0.06178263180161991</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2809365962169537</v>
+        <v>0.2747609971956919</v>
       </c>
       <c r="G7">
-        <v>0.1899068407003952</v>
+        <v>0.1701762728802905</v>
       </c>
       <c r="H7">
-        <v>0.0004251584331683711</v>
+        <v>0.0003098542521061676</v>
       </c>
       <c r="I7">
-        <v>0.0006540490663509146</v>
+        <v>0.0008317801043995487</v>
       </c>
       <c r="J7">
-        <v>0.1971494994544329</v>
+        <v>0.229873748747039</v>
       </c>
       <c r="K7">
-        <v>0.2026306587480402</v>
+        <v>0.193769190567382</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.119489187064632</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03997280183861784</v>
       </c>
       <c r="N7">
-        <v>0.3720890589042227</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3744654781318957</v>
       </c>
       <c r="Q7">
-        <v>0.7647902818963104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7449825972845758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.280366592027633</v>
+        <v>3.283183886460677</v>
       </c>
       <c r="C8">
-        <v>0.6379193161816943</v>
+        <v>0.6374982743977853</v>
       </c>
       <c r="D8">
-        <v>0.07230724113990306</v>
+        <v>0.07433215786182501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3048502937908495</v>
+        <v>0.2943218055500267</v>
       </c>
       <c r="G8">
-        <v>0.2031693540371364</v>
+        <v>0.1862236235556409</v>
       </c>
       <c r="H8">
-        <v>2.439999455983166E-05</v>
+        <v>8.889120393096306E-06</v>
       </c>
       <c r="I8">
-        <v>0.001028741746264217</v>
+        <v>0.001290479924416665</v>
       </c>
       <c r="J8">
-        <v>0.1972702841250182</v>
+        <v>0.223533707916566</v>
       </c>
       <c r="K8">
-        <v>0.1907263065886919</v>
+        <v>0.18108581035154</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1116439169327084</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03622582826120535</v>
       </c>
       <c r="N8">
-        <v>0.4379382629599746</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4395336766395275</v>
       </c>
       <c r="Q8">
-        <v>0.7935442653897979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7617565069766528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.374016463845521</v>
+        <v>4.374149117334412</v>
       </c>
       <c r="C9">
-        <v>0.7654774109288383</v>
+        <v>0.78619581129621</v>
       </c>
       <c r="D9">
-        <v>0.09441267995124747</v>
+        <v>0.09826418989866426</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3578757600539006</v>
+        <v>0.3403470102453099</v>
       </c>
       <c r="G9">
-        <v>0.2345627293909232</v>
+        <v>0.2151980175652781</v>
       </c>
       <c r="H9">
-        <v>0.0005673248972941636</v>
+        <v>0.0005708811637793465</v>
       </c>
       <c r="I9">
-        <v>0.002900872879313177</v>
+        <v>0.003041250281181185</v>
       </c>
       <c r="J9">
-        <v>0.2008880813749343</v>
+        <v>0.2244964893737844</v>
       </c>
       <c r="K9">
-        <v>0.1715864244399103</v>
+        <v>0.1605957816403816</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09924427610049946</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03323136385746572</v>
       </c>
       <c r="N9">
-        <v>0.5671388968572302</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5672035500732733</v>
       </c>
       <c r="Q9">
-        <v>0.8683662019506784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8175475142328708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.175546981048967</v>
+        <v>5.17285961152561</v>
       </c>
       <c r="C10">
-        <v>0.8760456331725095</v>
+        <v>0.9097244848519779</v>
       </c>
       <c r="D10">
-        <v>0.1120091623413799</v>
+        <v>0.118010842185555</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3933362343704943</v>
+        <v>0.3669760849629498</v>
       </c>
       <c r="G10">
-        <v>0.2540969739372585</v>
+        <v>0.2462853894785866</v>
       </c>
       <c r="H10">
-        <v>0.001981887117001424</v>
+        <v>0.001871259202517628</v>
       </c>
       <c r="I10">
-        <v>0.005402273480373587</v>
+        <v>0.005302818413325916</v>
       </c>
       <c r="J10">
-        <v>0.2020384618518278</v>
+        <v>0.2064252561584397</v>
       </c>
       <c r="K10">
-        <v>0.1559139069208442</v>
+        <v>0.1432926578719798</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08997459682564468</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03189807197276018</v>
       </c>
       <c r="N10">
-        <v>0.6317523555083966</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.6305682617940818</v>
       </c>
       <c r="Q10">
-        <v>0.9126588958075672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8372289065041656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.535941478057282</v>
+        <v>5.531867884604651</v>
       </c>
       <c r="C11">
-        <v>1.066708540656208</v>
+        <v>1.091309355948908</v>
       </c>
       <c r="D11">
-        <v>0.1308111201001196</v>
+        <v>0.1384785594258062</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3590307170940861</v>
+        <v>0.3295009048407138</v>
       </c>
       <c r="G11">
-        <v>0.216533230129393</v>
+        <v>0.2400605297777219</v>
       </c>
       <c r="H11">
-        <v>0.02040498426337223</v>
+        <v>0.02025198638756365</v>
       </c>
       <c r="I11">
-        <v>0.006722559554442675</v>
+        <v>0.006577460882959407</v>
       </c>
       <c r="J11">
-        <v>0.1784816772775528</v>
+        <v>0.158799578114774</v>
       </c>
       <c r="K11">
-        <v>0.1243595665297939</v>
+        <v>0.1161492880155013</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08007997348018625</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02270192386296177</v>
       </c>
       <c r="N11">
-        <v>0.4242857096419499</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4227488720655543</v>
       </c>
       <c r="Q11">
-        <v>0.7839022608803106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7029493555390758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.671174111427661</v>
+        <v>5.666644913770085</v>
       </c>
       <c r="C12">
-        <v>1.214631413328988</v>
+        <v>1.227184682408733</v>
       </c>
       <c r="D12">
-        <v>0.1432833783784275</v>
+        <v>0.1513506606028727</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.325301518532001</v>
+        <v>0.2974022852967622</v>
       </c>
       <c r="G12">
-        <v>0.1844145429671187</v>
+        <v>0.2220069142323879</v>
       </c>
       <c r="H12">
-        <v>0.05885261376590734</v>
+        <v>0.05869690687012508</v>
       </c>
       <c r="I12">
-        <v>0.006929034882327656</v>
+        <v>0.006733496284146767</v>
       </c>
       <c r="J12">
-        <v>0.1600505311725371</v>
+        <v>0.137395513327089</v>
       </c>
       <c r="K12">
-        <v>0.1071609436956109</v>
+        <v>0.1030727529194584</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07623063116990386</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01720450867793843</v>
       </c>
       <c r="N12">
-        <v>0.2734337903037556</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2719120422054004</v>
       </c>
       <c r="Q12">
-        <v>0.6772962179491344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6039351311755468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.63949796757106</v>
+        <v>5.635326603145245</v>
       </c>
       <c r="C13">
-        <v>1.34077922915759</v>
+        <v>1.34013373970987</v>
       </c>
       <c r="D13">
-        <v>0.1518290342201993</v>
+        <v>0.158778983944984</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.288008207001333</v>
+        <v>0.2666859787919549</v>
       </c>
       <c r="G13">
-        <v>0.1526839536892268</v>
+        <v>0.1877321571551462</v>
       </c>
       <c r="H13">
-        <v>0.1142776307431888</v>
+        <v>0.1141491540504518</v>
       </c>
       <c r="I13">
-        <v>0.006573932195667709</v>
+        <v>0.006414859618945279</v>
       </c>
       <c r="J13">
-        <v>0.1434387322328448</v>
+        <v>0.131195021054225</v>
       </c>
       <c r="K13">
-        <v>0.09851190968788792</v>
+        <v>0.09802687509898028</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07526826432868683</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0140818331283965</v>
       </c>
       <c r="N13">
-        <v>0.1576796752130676</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1564038580704832</v>
       </c>
       <c r="Q13">
-        <v>0.5752298603254644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5222358195532593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.54165932423183</v>
+        <v>5.538082394335675</v>
       </c>
       <c r="C14">
-        <v>1.421148112451874</v>
+        <v>1.410590746063633</v>
       </c>
       <c r="D14">
-        <v>0.1561253602111776</v>
+        <v>0.1615649711084188</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2603234896048647</v>
+        <v>0.2454036011249983</v>
       </c>
       <c r="G14">
-        <v>0.1308264346897658</v>
+        <v>0.1580115085505653</v>
       </c>
       <c r="H14">
-        <v>0.163373326558613</v>
+        <v>0.1632726905087765</v>
       </c>
       <c r="I14">
-        <v>0.006161213774669605</v>
+        <v>0.006078362212033284</v>
       </c>
       <c r="J14">
-        <v>0.1326780250959843</v>
+        <v>0.131796679950881</v>
       </c>
       <c r="K14">
-        <v>0.09687448490840178</v>
+        <v>0.09808290218060089</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07563422210787651</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01321130970662276</v>
       </c>
       <c r="N14">
-        <v>0.09812534331339862</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.09709048965477507</v>
       </c>
       <c r="Q14">
-        <v>0.5063075534167609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4715739154435568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.482143029268286</v>
+        <v>5.478880392059011</v>
       </c>
       <c r="C15">
-        <v>1.43544750286901</v>
+        <v>1.42256566517807</v>
       </c>
       <c r="D15">
-        <v>0.1563337758213947</v>
+        <v>0.1611079444472097</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2523671027424754</v>
+        <v>0.239835025187304</v>
       </c>
       <c r="G15">
-        <v>0.125046520350331</v>
+        <v>0.1479581549653162</v>
       </c>
       <c r="H15">
-        <v>0.1757751834995389</v>
+        <v>0.1756871272369551</v>
       </c>
       <c r="I15">
-        <v>0.006043160994265051</v>
+        <v>0.006019044606708768</v>
       </c>
       <c r="J15">
-        <v>0.1301835641254314</v>
+        <v>0.1340101771015902</v>
       </c>
       <c r="K15">
-        <v>0.09758004970206668</v>
+        <v>0.09901487616857274</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07592789967422764</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0133236399528967</v>
       </c>
       <c r="N15">
-        <v>0.08630838158919474</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.08537211704809167</v>
       </c>
       <c r="Q15">
-        <v>0.4887974072590282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4604896247692238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.142436652226536</v>
+        <v>5.140739999452364</v>
       </c>
       <c r="C16">
-        <v>1.359145426797852</v>
+        <v>1.348339540308245</v>
       </c>
       <c r="D16">
-        <v>0.1468221250312354</v>
+        <v>0.1492605782821812</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2438960323276831</v>
+        <v>0.2385107341211281</v>
       </c>
       <c r="G16">
-        <v>0.1223339519601723</v>
+        <v>0.1259860032388218</v>
       </c>
       <c r="H16">
-        <v>0.1625052678404302</v>
+        <v>0.162470066609302</v>
       </c>
       <c r="I16">
-        <v>0.005057125948604302</v>
+        <v>0.005214449027207024</v>
       </c>
       <c r="J16">
-        <v>0.1325020735307447</v>
+        <v>0.1554033423246395</v>
       </c>
       <c r="K16">
-        <v>0.1048899031088404</v>
+        <v>0.1056342920825744</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07736244635698553</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01543452435922063</v>
       </c>
       <c r="N16">
-        <v>0.08550533431498764</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.08499085831695652</v>
       </c>
       <c r="Q16">
-        <v>0.4877016154550518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4772732046933754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.934523723818529</v>
+        <v>4.933627885171859</v>
       </c>
       <c r="C17">
-        <v>1.257774700798961</v>
+        <v>1.252941849236151</v>
       </c>
       <c r="D17">
-        <v>0.1372709650716644</v>
+        <v>0.1390812009422291</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2520497179615973</v>
+        <v>0.2482172443821398</v>
       </c>
       <c r="G17">
-        <v>0.1317093545760244</v>
+        <v>0.1264058771374081</v>
       </c>
       <c r="H17">
-        <v>0.1244587759702114</v>
+        <v>0.1244433903467836</v>
       </c>
       <c r="I17">
-        <v>0.004571321042259768</v>
+        <v>0.004817901498466171</v>
       </c>
       <c r="J17">
-        <v>0.1399699341749923</v>
+        <v>0.1716032461840058</v>
       </c>
       <c r="K17">
-        <v>0.1110882111039633</v>
+        <v>0.1110397547487065</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07886315273626554</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01728983028284459</v>
       </c>
       <c r="N17">
-        <v>0.1125491357443167</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1122568026895507</v>
       </c>
       <c r="Q17">
-        <v>0.5230890430854487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5160253697302721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.815943503029018</v>
+        <v>4.815385672096113</v>
       </c>
       <c r="C18">
-        <v>1.126356654455321</v>
+        <v>1.131609467006854</v>
       </c>
       <c r="D18">
-        <v>0.1266329616513246</v>
+        <v>0.1287596554336261</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2767651111926455</v>
+        <v>0.2710197353042219</v>
       </c>
       <c r="G18">
-        <v>0.1542847688326034</v>
+        <v>0.1428324893862865</v>
       </c>
       <c r="H18">
-        <v>0.07160112846771227</v>
+        <v>0.07159153112989713</v>
       </c>
       <c r="I18">
-        <v>0.004163579858499133</v>
+        <v>0.00439574967491918</v>
       </c>
       <c r="J18">
-        <v>0.1535184121078572</v>
+        <v>0.1880607195559634</v>
       </c>
       <c r="K18">
-        <v>0.1196337490667108</v>
+        <v>0.1181457296338535</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08144624670097533</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01976792757044654</v>
       </c>
       <c r="N18">
-        <v>0.1855171178577066</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1853167064363106</v>
       </c>
       <c r="Q18">
-        <v>0.5992461117980383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5861421004324257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.77749050283137</v>
+        <v>4.776881259915967</v>
       </c>
       <c r="C19">
-        <v>0.9961604366254164</v>
+        <v>1.012746265383441</v>
       </c>
       <c r="D19">
-        <v>0.116744607515102</v>
+        <v>0.1196702636730009</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3121933519066573</v>
+        <v>0.3021515949702405</v>
       </c>
       <c r="G19">
-        <v>0.1860249084316408</v>
+        <v>0.1692761981523248</v>
       </c>
       <c r="H19">
-        <v>0.02658808212764541</v>
+        <v>0.02657474307140006</v>
       </c>
       <c r="I19">
-        <v>0.004357210508666221</v>
+        <v>0.00460861304399085</v>
       </c>
       <c r="J19">
-        <v>0.170869688803684</v>
+        <v>0.2045770824953692</v>
       </c>
       <c r="K19">
-        <v>0.1327008907300824</v>
+        <v>0.1285298372000945</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08549612036866572</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02356181120216139</v>
       </c>
       <c r="N19">
-        <v>0.3188416427267242</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3185983360390736</v>
       </c>
       <c r="Q19">
-        <v>0.7028450911323887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.676644596293599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.964900312934788</v>
+        <v>4.963142421841496</v>
       </c>
       <c r="C20">
-        <v>0.856459443768216</v>
+        <v>0.8884322589221085</v>
       </c>
       <c r="D20">
-        <v>0.1081456636559182</v>
+        <v>0.1130521835892182</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.379856643863576</v>
+        <v>0.3585449134539331</v>
       </c>
       <c r="G20">
-        <v>0.2450772052626604</v>
+        <v>0.2266680443361437</v>
       </c>
       <c r="H20">
-        <v>0.001514954898060417</v>
+        <v>0.001448712056497214</v>
       </c>
       <c r="I20">
-        <v>0.00536291921582599</v>
+        <v>0.00551284964797194</v>
       </c>
       <c r="J20">
-        <v>0.1996847105562836</v>
+        <v>0.2196989358449031</v>
       </c>
       <c r="K20">
-        <v>0.1576234185959997</v>
+        <v>0.1464754852829202</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09182749607201313</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0316338719880207</v>
       </c>
       <c r="N20">
-        <v>0.6133871638711241</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.6125932347298431</v>
       </c>
       <c r="Q20">
-        <v>0.8884872325283766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8277128604518538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.580526137526078</v>
+        <v>5.575582378413344</v>
       </c>
       <c r="C21">
-        <v>0.9179371765418409</v>
+        <v>0.953322675387767</v>
       </c>
       <c r="D21">
-        <v>0.119789030919506</v>
+        <v>0.1293206699188119</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4178753208216008</v>
+        <v>0.3753370958858611</v>
       </c>
       <c r="G21">
-        <v>0.2701211674345245</v>
+        <v>0.3029465398680316</v>
       </c>
       <c r="H21">
-        <v>0.002851471653395166</v>
+        <v>0.002611328744337116</v>
       </c>
       <c r="I21">
-        <v>0.007596817634185626</v>
+        <v>0.007390453733719937</v>
       </c>
       <c r="J21">
-        <v>0.2058666649617464</v>
+        <v>0.1635070025018237</v>
       </c>
       <c r="K21">
-        <v>0.1517859330026941</v>
+        <v>0.1345134262287164</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08563961129995512</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03145485031707018</v>
       </c>
       <c r="N21">
-        <v>0.7103232762814002</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.708200040885032</v>
       </c>
       <c r="Q21">
-        <v>0.9548766203031676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8324370134806145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.982818981310061</v>
+        <v>5.975576775337345</v>
       </c>
       <c r="C22">
-        <v>0.9619690169137129</v>
+        <v>0.9984644398635112</v>
       </c>
       <c r="D22">
-        <v>0.1277094552754789</v>
+        <v>0.1405404216744728</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4420018046972487</v>
+        <v>0.384623756608903</v>
       </c>
       <c r="G22">
-        <v>0.2857656846609871</v>
+        <v>0.3598512898478674</v>
       </c>
       <c r="H22">
-        <v>0.003970481951867832</v>
+        <v>0.003579577544739088</v>
       </c>
       <c r="I22">
-        <v>0.009002317413110639</v>
+        <v>0.008444191323450312</v>
       </c>
       <c r="J22">
-        <v>0.2095823544160567</v>
+        <v>0.133698777715118</v>
       </c>
       <c r="K22">
-        <v>0.1476430427167159</v>
+        <v>0.1263173570835896</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08172825862819533</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03135595924077528</v>
       </c>
       <c r="N22">
-        <v>0.7582977970521796</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7552973683946647</v>
       </c>
       <c r="Q22">
-        <v>0.9960459636337475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.830754694222307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.768186867303484</v>
+        <v>5.762272212927371</v>
       </c>
       <c r="C23">
-        <v>0.9350387518134085</v>
+        <v>0.9720005812944237</v>
       </c>
       <c r="D23">
-        <v>0.1232059672252603</v>
+        <v>0.1338629012844876</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4304667376456095</v>
+        <v>0.3827133736877713</v>
       </c>
       <c r="G23">
-        <v>0.278679774383896</v>
+        <v>0.3238970973576158</v>
       </c>
       <c r="H23">
-        <v>0.003357302243172988</v>
+        <v>0.003054355184811786</v>
       </c>
       <c r="I23">
-        <v>0.007961932457858367</v>
+        <v>0.007541568816881394</v>
       </c>
       <c r="J23">
-        <v>0.2082528864252424</v>
+        <v>0.1537788174694086</v>
       </c>
       <c r="K23">
-        <v>0.1506172996307882</v>
+        <v>0.1317634007255428</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0841108174811902</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03189081408684302</v>
       </c>
       <c r="N23">
-        <v>0.7327208324462617</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.7302241412440793</v>
       </c>
       <c r="Q23">
-        <v>0.9781215868443951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8405274050532938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.95536391069453</v>
+        <v>4.953605548529367</v>
       </c>
       <c r="C24">
-        <v>0.838979813411953</v>
+        <v>0.8714533262719328</v>
       </c>
       <c r="D24">
-        <v>0.1066397549685831</v>
+        <v>0.1115810740468675</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3859813491450339</v>
+        <v>0.3641104326929536</v>
       </c>
       <c r="G24">
-        <v>0.2509903548624024</v>
+        <v>0.2315053710405692</v>
       </c>
       <c r="H24">
-        <v>0.001465130292402472</v>
+        <v>0.001397253854733549</v>
       </c>
       <c r="I24">
-        <v>0.004928631140121986</v>
+        <v>0.004977409670406274</v>
       </c>
       <c r="J24">
-        <v>0.2028653717960154</v>
+        <v>0.2230169644218236</v>
       </c>
       <c r="K24">
-        <v>0.1615168112915306</v>
+        <v>0.1496602196102863</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09302411876049987</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03283221594775299</v>
       </c>
       <c r="N24">
-        <v>0.6360307047816889</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.635227768182844</v>
       </c>
       <c r="Q24">
-        <v>0.9076778376878849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8449504322523609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.078355625240931</v>
+        <v>4.079370170085383</v>
       </c>
       <c r="C25">
-        <v>0.7358591295036092</v>
+        <v>0.751421557378734</v>
       </c>
       <c r="D25">
-        <v>0.0888285061015921</v>
+        <v>0.09197186952440006</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3408932295369667</v>
+        <v>0.3264413808791957</v>
       </c>
       <c r="G25">
-        <v>0.2236321625064122</v>
+        <v>0.2020134540832501</v>
       </c>
       <c r="H25">
-        <v>0.0002617186707930541</v>
+        <v>0.0002815421970792098</v>
       </c>
       <c r="I25">
-        <v>0.002600385007387018</v>
+        <v>0.002887954452065244</v>
       </c>
       <c r="J25">
-        <v>0.1985761098569725</v>
+        <v>0.2275177034339393</v>
       </c>
       <c r="K25">
-        <v>0.1751531100855299</v>
+        <v>0.1650387982724073</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1020358317273029</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03334109802722018</v>
       </c>
       <c r="N25">
-        <v>0.5320978094355411</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.532610887833826</v>
       </c>
       <c r="Q25">
-        <v>0.8401713912061979</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7980970305100499</v>
       </c>
     </row>
   </sheetData>
